--- a/dcd_opamp_ac_pre_tsmc2p_meas.xlsx
+++ b/dcd_opamp_ac_pre_tsmc2p_meas.xlsx
@@ -1168,13 +1168,13 @@
         <v>35</v>
       </c>
       <c r="R2">
-        <v>39.234083</v>
+        <v>40.563439</v>
       </c>
       <c r="S2">
-        <v>136.78811</v>
+        <v>120.17243</v>
       </c>
       <c r="T2">
-        <v>10409.422</v>
+        <v>8681.6643</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -1230,13 +1230,13 @@
         <v>47</v>
       </c>
       <c r="R3">
-        <v>29.040811</v>
+        <v>28.045319</v>
       </c>
       <c r="S3">
-        <v>572.7556</v>
+        <v>573.6704</v>
       </c>
       <c r="T3">
-        <v>13434.446</v>
+        <v>10285.315</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -1292,13 +1292,13 @@
         <v>47</v>
       </c>
       <c r="R4">
-        <v>41.057274</v>
+        <v>42.783584</v>
       </c>
       <c r="S4">
-        <v>191.74418</v>
+        <v>161.39423</v>
       </c>
       <c r="T4">
-        <v>16777.444</v>
+        <v>13350.491</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -1354,13 +1354,13 @@
         <v>60</v>
       </c>
       <c r="R5">
-        <v>34.734907</v>
+        <v>35.225341</v>
       </c>
       <c r="S5">
-        <v>123.58251</v>
+        <v>116.08664</v>
       </c>
       <c r="T5">
-        <v>5976.6125</v>
+        <v>5155.1034</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -1416,13 +1416,13 @@
         <v>60</v>
       </c>
       <c r="R6">
-        <v>39.111426</v>
+        <v>39.910323</v>
       </c>
       <c r="S6">
-        <v>88.825632</v>
+        <v>81.22638499999999</v>
       </c>
       <c r="T6">
-        <v>6957.175</v>
+        <v>6015.7746</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -1478,13 +1478,13 @@
         <v>60</v>
       </c>
       <c r="R7">
-        <v>34.973857</v>
+        <v>35.440058</v>
       </c>
       <c r="S7">
-        <v>131.50748</v>
+        <v>124.85765</v>
       </c>
       <c r="T7">
-        <v>6524.1716</v>
+        <v>5574.3123</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -1540,13 +1540,13 @@
         <v>60</v>
       </c>
       <c r="R8">
-        <v>39.789852</v>
+        <v>40.67531</v>
       </c>
       <c r="S8">
-        <v>92.137782</v>
+        <v>84.13645200000001</v>
       </c>
       <c r="T8">
-        <v>7764.0686</v>
+        <v>6707.9987</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1602,13 +1602,13 @@
         <v>60</v>
       </c>
       <c r="R9">
-        <v>29.663961</v>
+        <v>28.518508</v>
       </c>
       <c r="S9">
-        <v>257.44336</v>
+        <v>266.84687</v>
       </c>
       <c r="T9">
-        <v>6920.0279</v>
+        <v>5615.0396</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1664,13 +1664,13 @@
         <v>60</v>
       </c>
       <c r="R10">
-        <v>40.521576</v>
+        <v>41.912333</v>
       </c>
       <c r="S10">
-        <v>94.55026599999999</v>
+        <v>81.98989400000001</v>
       </c>
       <c r="T10">
-        <v>8504.111000000001</v>
+        <v>7204.6319</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1726,13 +1726,13 @@
         <v>47</v>
       </c>
       <c r="R11">
-        <v>29.040811</v>
+        <v>28.045319</v>
       </c>
       <c r="S11">
-        <v>457.00031</v>
+        <v>471.26968</v>
       </c>
       <c r="T11">
-        <v>11231.026</v>
+        <v>8939.534900000001</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1788,13 +1788,13 @@
         <v>47</v>
       </c>
       <c r="R12">
-        <v>29.586869</v>
+        <v>28.589756</v>
       </c>
       <c r="S12">
-        <v>455.91551</v>
+        <v>458.77363</v>
       </c>
       <c r="T12">
-        <v>11373.548</v>
+        <v>8767.314899999999</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1850,13 +1850,13 @@
         <v>47</v>
       </c>
       <c r="R13">
-        <v>29.586869</v>
+        <v>28.589756</v>
       </c>
       <c r="S13">
-        <v>363.58617</v>
+        <v>375.32524</v>
       </c>
       <c r="T13">
-        <v>9506.856900000001</v>
+        <v>7603.2564</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1912,13 +1912,13 @@
         <v>47</v>
       </c>
       <c r="R14">
-        <v>41.057274</v>
+        <v>42.783584</v>
       </c>
       <c r="S14">
-        <v>151.25012</v>
+        <v>128.36866</v>
       </c>
       <c r="T14">
-        <v>14080.619</v>
+        <v>11619.625</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1974,13 +1974,13 @@
         <v>47</v>
       </c>
       <c r="R15">
-        <v>42.434112</v>
+        <v>44.022074</v>
       </c>
       <c r="S15">
-        <v>140.31436</v>
+        <v>119.30077</v>
       </c>
       <c r="T15">
-        <v>14332.039</v>
+        <v>11474.948</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -2036,13 +2036,13 @@
         <v>47</v>
       </c>
       <c r="R16">
-        <v>42.434112</v>
+        <v>44.022074</v>
       </c>
       <c r="S16">
-        <v>110.61663</v>
+        <v>94.770563</v>
       </c>
       <c r="T16">
-        <v>12030.799</v>
+        <v>9973.3343</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -2098,13 +2098,13 @@
         <v>60</v>
       </c>
       <c r="R17">
-        <v>32.168321</v>
+        <v>32.56167</v>
       </c>
       <c r="S17">
-        <v>237.21214</v>
+        <v>219.06789</v>
       </c>
       <c r="T17">
-        <v>8243.363799999999</v>
+        <v>6800.7266</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -2160,13 +2160,13 @@
         <v>60</v>
       </c>
       <c r="R18">
-        <v>32.168321</v>
+        <v>32.56167</v>
       </c>
       <c r="S18">
-        <v>188.21064</v>
+        <v>176.16495</v>
       </c>
       <c r="T18">
-        <v>6822.2806</v>
+        <v>5831.4876</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -2222,13 +2222,13 @@
         <v>60</v>
       </c>
       <c r="R19">
-        <v>34.734907</v>
+        <v>35.225341</v>
       </c>
       <c r="S19">
-        <v>156.36107</v>
+        <v>145.3137</v>
       </c>
       <c r="T19">
-        <v>7225.1448</v>
+        <v>6019.0794</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -2284,13 +2284,13 @@
         <v>60</v>
       </c>
       <c r="R20">
-        <v>36.753541</v>
+        <v>37.222139</v>
       </c>
       <c r="S20">
-        <v>165.19508</v>
+        <v>152.38875</v>
       </c>
       <c r="T20">
-        <v>9461.0249</v>
+        <v>7837.0632</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -2346,13 +2346,13 @@
         <v>60</v>
       </c>
       <c r="R21">
-        <v>36.753541</v>
+        <v>37.222139</v>
       </c>
       <c r="S21">
-        <v>130.53357</v>
+        <v>121.55544</v>
       </c>
       <c r="T21">
-        <v>7852.1336</v>
+        <v>6719.9758</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -2408,13 +2408,13 @@
         <v>60</v>
       </c>
       <c r="R22">
-        <v>39.111426</v>
+        <v>39.910323</v>
       </c>
       <c r="S22">
-        <v>112.66736</v>
+        <v>102.26322</v>
       </c>
       <c r="T22">
-        <v>8378.827799999999</v>
+        <v>7013.6866</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -2470,13 +2470,13 @@
         <v>47</v>
       </c>
       <c r="R23">
-        <v>32.168321</v>
+        <v>32.503454</v>
       </c>
       <c r="S23">
-        <v>237.21214</v>
+        <v>220.37071</v>
       </c>
       <c r="T23">
-        <v>8243.363799999999</v>
+        <v>6821.5309</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -2532,13 +2532,13 @@
         <v>47</v>
       </c>
       <c r="R24">
-        <v>32.168321</v>
+        <v>32.503454</v>
       </c>
       <c r="S24">
-        <v>188.21064</v>
+        <v>177.18468</v>
       </c>
       <c r="T24">
-        <v>6822.2806</v>
+        <v>5846.4211</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2594,13 +2594,13 @@
         <v>47</v>
       </c>
       <c r="R25">
-        <v>34.734907</v>
+        <v>35.145526</v>
       </c>
       <c r="S25">
-        <v>156.36107</v>
+        <v>146.15494</v>
       </c>
       <c r="T25">
-        <v>7225.1448</v>
+        <v>6015.3505</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2656,13 +2656,13 @@
         <v>47</v>
       </c>
       <c r="R26">
-        <v>36.753541</v>
+        <v>37.162682</v>
       </c>
       <c r="S26">
-        <v>165.19508</v>
+        <v>153.75541</v>
       </c>
       <c r="T26">
-        <v>9461.0249</v>
+        <v>7851.1682</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2718,13 +2718,13 @@
         <v>47</v>
       </c>
       <c r="R27">
-        <v>36.753541</v>
+        <v>37.162682</v>
       </c>
       <c r="S27">
-        <v>130.53357</v>
+        <v>122.65698</v>
       </c>
       <c r="T27">
-        <v>7852.1336</v>
+        <v>6732.2825</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2780,13 +2780,13 @@
         <v>47</v>
       </c>
       <c r="R28">
-        <v>39.111426</v>
+        <v>39.764439</v>
       </c>
       <c r="S28">
-        <v>112.66736</v>
+        <v>103.70453</v>
       </c>
       <c r="T28">
-        <v>8378.827799999999</v>
+        <v>6998.81</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2842,13 +2842,13 @@
         <v>60</v>
       </c>
       <c r="R29">
-        <v>32.408346</v>
+        <v>32.429881</v>
       </c>
       <c r="S29">
-        <v>254.17543</v>
+        <v>243.72595</v>
       </c>
       <c r="T29">
-        <v>9062.2104</v>
+        <v>7387.6759</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2904,13 +2904,13 @@
         <v>60</v>
       </c>
       <c r="R30">
-        <v>32.408346</v>
+        <v>32.429881</v>
       </c>
       <c r="S30">
-        <v>201.76536</v>
+        <v>196.81466</v>
       </c>
       <c r="T30">
-        <v>7505.7065</v>
+        <v>6354.5677</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2966,13 +2966,13 @@
         <v>60</v>
       </c>
       <c r="R31">
-        <v>34.973857</v>
+        <v>35.440058</v>
       </c>
       <c r="S31">
-        <v>166.37731</v>
+        <v>156.09863</v>
       </c>
       <c r="T31">
-        <v>7882.6226</v>
+        <v>6488.4707</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -3028,13 +3028,13 @@
         <v>60</v>
       </c>
       <c r="R32">
-        <v>37.558223</v>
+        <v>37.899326</v>
       </c>
       <c r="S32">
-        <v>171.35175</v>
+        <v>161.20538</v>
       </c>
       <c r="T32">
-        <v>10686.492</v>
+        <v>8825.009599999999</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -3090,13 +3090,13 @@
         <v>60</v>
       </c>
       <c r="R33">
-        <v>37.558223</v>
+        <v>37.899326</v>
       </c>
       <c r="S33">
-        <v>135.37651</v>
+        <v>128.73038</v>
       </c>
       <c r="T33">
-        <v>8880.9445</v>
+        <v>7585.3188</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -3152,13 +3152,13 @@
         <v>60</v>
       </c>
       <c r="R34">
-        <v>39.789852</v>
+        <v>40.67531</v>
       </c>
       <c r="S34">
-        <v>116.87207</v>
+        <v>105.89007</v>
       </c>
       <c r="T34">
-        <v>9339.906199999999</v>
+        <v>7803.9994</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -3214,13 +3214,13 @@
         <v>47</v>
       </c>
       <c r="R35">
-        <v>32.408346</v>
+        <v>32.527048</v>
       </c>
       <c r="S35">
-        <v>254.17543</v>
+        <v>241.16156</v>
       </c>
       <c r="T35">
-        <v>9062.2104</v>
+        <v>7416.6612</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -3276,13 +3276,13 @@
         <v>47</v>
       </c>
       <c r="R36">
-        <v>32.408346</v>
+        <v>32.527048</v>
       </c>
       <c r="S36">
-        <v>201.76536</v>
+        <v>194.56239</v>
       </c>
       <c r="T36">
-        <v>7505.7065</v>
+        <v>6374.4831</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -3338,13 +3338,13 @@
         <v>47</v>
       </c>
       <c r="R37">
-        <v>34.973857</v>
+        <v>35.404011</v>
       </c>
       <c r="S37">
-        <v>166.37731</v>
+        <v>156.05469</v>
       </c>
       <c r="T37">
-        <v>7882.6226</v>
+        <v>6487.4281</v>
       </c>
     </row>
     <row r="38" spans="1:20">
@@ -3400,13 +3400,13 @@
         <v>47</v>
       </c>
       <c r="R38">
-        <v>37.558223</v>
+        <v>37.892485</v>
       </c>
       <c r="S38">
-        <v>171.35175</v>
+        <v>161.42161</v>
       </c>
       <c r="T38">
-        <v>10686.492</v>
+        <v>8842.4516</v>
       </c>
     </row>
     <row r="39" spans="1:20">
@@ -3462,13 +3462,13 @@
         <v>47</v>
       </c>
       <c r="R39">
-        <v>37.558223</v>
+        <v>37.892485</v>
       </c>
       <c r="S39">
-        <v>135.37651</v>
+        <v>128.87806</v>
       </c>
       <c r="T39">
-        <v>8880.9445</v>
+        <v>7597.7868</v>
       </c>
     </row>
     <row r="40" spans="1:20">
@@ -3524,13 +3524,13 @@
         <v>47</v>
       </c>
       <c r="R40">
-        <v>39.789852</v>
+        <v>40.513506</v>
       </c>
       <c r="S40">
-        <v>116.87207</v>
+        <v>107.28459</v>
       </c>
       <c r="T40">
-        <v>9339.906199999999</v>
+        <v>7785.3375</v>
       </c>
     </row>
     <row r="41" spans="1:20">
@@ -3586,13 +3586,13 @@
         <v>60</v>
       </c>
       <c r="R41">
-        <v>28.763346</v>
+        <v>27.719826</v>
       </c>
       <c r="S41">
-        <v>414.26501</v>
+        <v>413.59145</v>
       </c>
       <c r="T41">
-        <v>9654.1705</v>
+        <v>7505.369</v>
       </c>
     </row>
     <row r="42" spans="1:20">
@@ -3648,13 +3648,13 @@
         <v>60</v>
       </c>
       <c r="R42">
-        <v>28.763346</v>
+        <v>27.719826</v>
       </c>
       <c r="S42">
-        <v>330.1432</v>
+        <v>337.56077</v>
       </c>
       <c r="T42">
-        <v>8026.6494</v>
+        <v>6469.4201</v>
       </c>
     </row>
     <row r="43" spans="1:20">
@@ -3710,13 +3710,13 @@
         <v>60</v>
       </c>
       <c r="R43">
-        <v>29.663961</v>
+        <v>28.518508</v>
       </c>
       <c r="S43">
-        <v>323.58552</v>
+        <v>328.93872</v>
       </c>
       <c r="T43">
-        <v>8325.4308</v>
+        <v>6534.2469</v>
       </c>
     </row>
     <row r="44" spans="1:20">
@@ -3772,13 +3772,13 @@
         <v>60</v>
       </c>
       <c r="R44">
-        <v>39.020164</v>
+        <v>40.52516</v>
       </c>
       <c r="S44">
-        <v>162.90976</v>
+        <v>138.26957</v>
       </c>
       <c r="T44">
-        <v>11692.129</v>
+        <v>9480.159900000001</v>
       </c>
     </row>
     <row r="45" spans="1:20">
@@ -3834,13 +3834,13 @@
         <v>60</v>
       </c>
       <c r="R45">
-        <v>39.020164</v>
+        <v>40.52516</v>
       </c>
       <c r="S45">
-        <v>128.53428</v>
+        <v>109.92651</v>
       </c>
       <c r="T45">
-        <v>9756.490299999999</v>
+        <v>8196.774299999999</v>
       </c>
     </row>
     <row r="46" spans="1:20">
@@ -3896,13 +3896,13 @@
         <v>60</v>
       </c>
       <c r="R46">
-        <v>40.521576</v>
+        <v>41.912333</v>
       </c>
       <c r="S46">
-        <v>119.94149</v>
+        <v>103.27914</v>
       </c>
       <c r="T46">
-        <v>10189.748</v>
+        <v>8342.813599999999</v>
       </c>
     </row>
     <row r="47" spans="1:20">
@@ -3958,13 +3958,13 @@
         <v>47</v>
       </c>
       <c r="R47">
-        <v>28.763346</v>
+        <v>27.857773</v>
       </c>
       <c r="S47">
-        <v>414.26501</v>
+        <v>412.17048</v>
       </c>
       <c r="T47">
-        <v>9654.1705</v>
+        <v>7597.4382</v>
       </c>
     </row>
     <row r="48" spans="1:20">
@@ -4020,13 +4020,13 @@
         <v>47</v>
       </c>
       <c r="R48">
-        <v>28.763346</v>
+        <v>27.857773</v>
       </c>
       <c r="S48">
-        <v>330.1432</v>
+        <v>335.38511</v>
       </c>
       <c r="T48">
-        <v>8026.6494</v>
+        <v>6539.6054</v>
       </c>
     </row>
     <row r="49" spans="1:20">
@@ -4082,13 +4082,13 @@
         <v>47</v>
       </c>
       <c r="R49">
-        <v>29.663961</v>
+        <v>28.684708</v>
       </c>
       <c r="S49">
-        <v>323.58552</v>
+        <v>324.84853</v>
       </c>
       <c r="T49">
-        <v>8325.4308</v>
+        <v>6574.511</v>
       </c>
     </row>
     <row r="50" spans="1:20">
@@ -4144,13 +4144,13 @@
         <v>47</v>
       </c>
       <c r="R50">
-        <v>39.020164</v>
+        <v>40.222734</v>
       </c>
       <c r="S50">
-        <v>162.90976</v>
+        <v>142.45277</v>
       </c>
       <c r="T50">
-        <v>11692.129</v>
+        <v>9528.9319</v>
       </c>
     </row>
     <row r="51" spans="1:20">
@@ -4206,13 +4206,13 @@
         <v>47</v>
       </c>
       <c r="R51">
-        <v>39.020164</v>
+        <v>40.222734</v>
       </c>
       <c r="S51">
-        <v>128.53428</v>
+        <v>113.27429</v>
       </c>
       <c r="T51">
-        <v>9756.490299999999</v>
+        <v>8231.297200000001</v>
       </c>
     </row>
     <row r="52" spans="1:20">
@@ -4268,13 +4268,13 @@
         <v>47</v>
       </c>
       <c r="R52">
-        <v>40.521576</v>
+        <v>41.631879</v>
       </c>
       <c r="S52">
-        <v>119.94149</v>
+        <v>106.06288</v>
       </c>
       <c r="T52">
-        <v>10189.748</v>
+        <v>8355.255499999999</v>
       </c>
     </row>
     <row r="53" spans="1:20">
@@ -4330,13 +4330,13 @@
         <v>35</v>
       </c>
       <c r="R53">
-        <v>38.764064</v>
+        <v>39.685345</v>
       </c>
       <c r="S53">
-        <v>141.32366</v>
+        <v>127.71205</v>
       </c>
       <c r="T53">
-        <v>10322.151</v>
+        <v>8681.569</v>
       </c>
     </row>
     <row r="54" spans="1:20">
@@ -4392,13 +4392,13 @@
         <v>47</v>
       </c>
       <c r="R54">
-        <v>29.231213</v>
+        <v>28.141037</v>
       </c>
       <c r="S54">
-        <v>563.39266</v>
+        <v>583.32055</v>
       </c>
       <c r="T54">
-        <v>13502.455</v>
+        <v>10463.124</v>
       </c>
     </row>
     <row r="55" spans="1:20">
@@ -4454,13 +4454,13 @@
         <v>47</v>
       </c>
       <c r="R55">
-        <v>40.758106</v>
+        <v>42.352578</v>
       </c>
       <c r="S55">
-        <v>195.99573</v>
+        <v>166.966</v>
       </c>
       <c r="T55">
-        <v>16725.097</v>
+        <v>13419.714</v>
       </c>
     </row>
     <row r="56" spans="1:20">
@@ -4516,13 +4516,13 @@
         <v>60</v>
       </c>
       <c r="R56">
-        <v>33.994132</v>
+        <v>33.877648</v>
       </c>
       <c r="S56">
-        <v>130.17018</v>
+        <v>127.12396</v>
       </c>
       <c r="T56">
-        <v>5870.4533</v>
+        <v>5083.1548</v>
       </c>
     </row>
     <row r="57" spans="1:20">
@@ -4578,13 +4578,13 @@
         <v>60</v>
       </c>
       <c r="R57">
-        <v>36.564994</v>
+        <v>35.840503</v>
       </c>
       <c r="S57">
-        <v>105.46907</v>
+        <v>105.9152</v>
       </c>
       <c r="T57">
-        <v>6454.4728</v>
+        <v>5542.3666</v>
       </c>
     </row>
     <row r="58" spans="1:20">
@@ -4640,13 +4640,13 @@
         <v>60</v>
       </c>
       <c r="R58">
-        <v>34.289037</v>
+        <v>34.274385</v>
       </c>
       <c r="S58">
-        <v>136.46142</v>
+        <v>132.88434</v>
       </c>
       <c r="T58">
-        <v>6355.8301</v>
+        <v>5467.2013</v>
       </c>
     </row>
     <row r="59" spans="1:20">
@@ -4702,13 +4702,13 @@
         <v>60</v>
       </c>
       <c r="R59">
-        <v>37.621277</v>
+        <v>37.177909</v>
       </c>
       <c r="S59">
-        <v>103.92697</v>
+        <v>101.99983</v>
       </c>
       <c r="T59">
-        <v>7135.3436</v>
+        <v>6125.4332</v>
       </c>
     </row>
     <row r="60" spans="1:20">
@@ -4764,13 +4764,13 @@
         <v>60</v>
       </c>
       <c r="R60">
-        <v>30.103162</v>
+        <v>28.996976</v>
       </c>
       <c r="S60">
-        <v>248.55807</v>
+        <v>260.98103</v>
       </c>
       <c r="T60">
-        <v>7025.6993</v>
+        <v>5773.1598</v>
       </c>
     </row>
     <row r="61" spans="1:20">
@@ -4826,13 +4826,13 @@
         <v>60</v>
       </c>
       <c r="R61">
-        <v>40.081671</v>
+        <v>41.112633</v>
       </c>
       <c r="S61">
-        <v>100.21156</v>
+        <v>89.82943400000001</v>
       </c>
       <c r="T61">
-        <v>8645.8663</v>
+        <v>7415.336</v>
       </c>
     </row>
     <row r="62" spans="1:20">
@@ -4888,13 +4888,13 @@
         <v>47</v>
       </c>
       <c r="R62">
-        <v>29.231213</v>
+        <v>28.141037</v>
       </c>
       <c r="S62">
-        <v>449.03483</v>
+        <v>477.60675</v>
       </c>
       <c r="T62">
-        <v>11280.649</v>
+        <v>9089.474200000001</v>
       </c>
     </row>
     <row r="63" spans="1:20">
@@ -4950,13 +4950,13 @@
         <v>47</v>
       </c>
       <c r="R63">
-        <v>29.723531</v>
+        <v>28.659664</v>
       </c>
       <c r="S63">
-        <v>450.57356</v>
+        <v>463.72955</v>
       </c>
       <c r="T63">
-        <v>11421.024</v>
+        <v>8876.393599999999</v>
       </c>
     </row>
     <row r="64" spans="1:20">
@@ -5012,13 +5012,13 @@
         <v>47</v>
       </c>
       <c r="R64">
-        <v>29.723531</v>
+        <v>28.659664</v>
       </c>
       <c r="S64">
-        <v>358.95499</v>
+        <v>378.45272</v>
       </c>
       <c r="T64">
-        <v>9539.5566</v>
+        <v>7694.1412</v>
       </c>
     </row>
     <row r="65" spans="1:20">
@@ -5074,13 +5074,13 @@
         <v>47</v>
       </c>
       <c r="R65">
-        <v>40.758106</v>
+        <v>42.352578</v>
       </c>
       <c r="S65">
-        <v>154.58936</v>
+        <v>132.79325</v>
       </c>
       <c r="T65">
-        <v>14015.545</v>
+        <v>11661.158</v>
       </c>
     </row>
     <row r="66" spans="1:20">
@@ -5136,13 +5136,13 @@
         <v>47</v>
       </c>
       <c r="R66">
-        <v>42.134217</v>
+        <v>43.669594</v>
       </c>
       <c r="S66">
-        <v>143.56404</v>
+        <v>122.75609</v>
       </c>
       <c r="T66">
-        <v>14296.114</v>
+        <v>11528.323</v>
       </c>
     </row>
     <row r="67" spans="1:20">
@@ -5198,13 +5198,13 @@
         <v>47</v>
       </c>
       <c r="R67">
-        <v>42.134217</v>
+        <v>43.669594</v>
       </c>
       <c r="S67">
-        <v>113.16888</v>
+        <v>97.514101</v>
       </c>
       <c r="T67">
-        <v>11983.368</v>
+        <v>10006.409</v>
       </c>
     </row>
     <row r="68" spans="1:20">
@@ -5260,13 +5260,13 @@
         <v>60</v>
       </c>
       <c r="R68">
-        <v>30.774619</v>
+        <v>29.840585</v>
       </c>
       <c r="S68">
-        <v>264.09329</v>
+        <v>266.2857</v>
       </c>
       <c r="T68">
-        <v>8029.5096</v>
+        <v>6596.6809</v>
       </c>
     </row>
     <row r="69" spans="1:20">
@@ -5322,13 +5322,13 @@
         <v>60</v>
       </c>
       <c r="R69">
-        <v>30.774619</v>
+        <v>29.840585</v>
       </c>
       <c r="S69">
-        <v>209.77562</v>
+        <v>214.99227</v>
       </c>
       <c r="T69">
-        <v>6612.184</v>
+        <v>5602.3853</v>
       </c>
     </row>
     <row r="70" spans="1:20">
@@ -5384,13 +5384,13 @@
         <v>60</v>
       </c>
       <c r="R70">
-        <v>33.994132</v>
+        <v>33.877648</v>
       </c>
       <c r="S70">
-        <v>164.68152</v>
+        <v>158.99654</v>
       </c>
       <c r="T70">
-        <v>7126.115</v>
+        <v>5977.2824</v>
       </c>
     </row>
     <row r="71" spans="1:20">
@@ -5446,13 +5446,13 @@
         <v>60</v>
       </c>
       <c r="R71">
-        <v>32.410633</v>
+        <v>29.998041</v>
       </c>
       <c r="S71">
-        <v>229.22422</v>
+        <v>258.65682</v>
       </c>
       <c r="T71">
-        <v>8566.1001</v>
+        <v>6926.295</v>
       </c>
     </row>
     <row r="72" spans="1:20">
@@ -5508,13 +5508,13 @@
         <v>60</v>
       </c>
       <c r="R72">
-        <v>32.410633</v>
+        <v>29.998041</v>
       </c>
       <c r="S72">
-        <v>181.68913</v>
+        <v>208.75689</v>
       </c>
       <c r="T72">
-        <v>7013.0517</v>
+        <v>5821.4515</v>
       </c>
     </row>
     <row r="73" spans="1:20">
@@ -5570,13 +5570,13 @@
         <v>60</v>
       </c>
       <c r="R73">
-        <v>36.564994</v>
+        <v>35.840503</v>
       </c>
       <c r="S73">
-        <v>133.70894</v>
+        <v>132.89752</v>
       </c>
       <c r="T73">
-        <v>7867.4477</v>
+        <v>6578.9949</v>
       </c>
     </row>
     <row r="74" spans="1:20">
@@ -5632,13 +5632,13 @@
         <v>47</v>
       </c>
       <c r="R74">
-        <v>30.774619</v>
+        <v>30.144821</v>
       </c>
       <c r="S74">
-        <v>264.09329</v>
+        <v>260.9843</v>
       </c>
       <c r="T74">
-        <v>8029.5096</v>
+        <v>6649.7543</v>
       </c>
     </row>
     <row r="75" spans="1:20">
@@ -5694,13 +5694,13 @@
         <v>47</v>
       </c>
       <c r="R75">
-        <v>30.774619</v>
+        <v>30.144821</v>
       </c>
       <c r="S75">
-        <v>209.77562</v>
+        <v>210.59613</v>
       </c>
       <c r="T75">
-        <v>6612.184</v>
+        <v>5651.362</v>
       </c>
     </row>
     <row r="76" spans="1:20">
@@ -5756,13 +5756,13 @@
         <v>47</v>
       </c>
       <c r="R76">
-        <v>33.994132</v>
+        <v>33.971886</v>
       </c>
       <c r="S76">
-        <v>164.68152</v>
+        <v>158.03635</v>
       </c>
       <c r="T76">
-        <v>7126.115</v>
+        <v>5979.4747</v>
       </c>
     </row>
     <row r="77" spans="1:20">
@@ -5818,13 +5818,13 @@
         <v>47</v>
       </c>
       <c r="R77">
-        <v>32.410633</v>
+        <v>30.61699</v>
       </c>
       <c r="S77">
-        <v>229.22422</v>
+        <v>247.79572</v>
       </c>
       <c r="T77">
-        <v>8566.1001</v>
+        <v>7044.6688</v>
       </c>
     </row>
     <row r="78" spans="1:20">
@@ -5880,13 +5880,13 @@
         <v>47</v>
       </c>
       <c r="R78">
-        <v>32.410633</v>
+        <v>30.61699</v>
       </c>
       <c r="S78">
-        <v>181.68913</v>
+        <v>199.73002</v>
       </c>
       <c r="T78">
-        <v>7013.0517</v>
+        <v>5927.7046</v>
       </c>
     </row>
     <row r="79" spans="1:20">
@@ -5942,13 +5942,13 @@
         <v>47</v>
       </c>
       <c r="R79">
-        <v>36.564994</v>
+        <v>36.071058</v>
       </c>
       <c r="S79">
-        <v>133.70894</v>
+        <v>131.43786</v>
       </c>
       <c r="T79">
-        <v>7867.4477</v>
+        <v>6615.7858</v>
       </c>
     </row>
     <row r="80" spans="1:20">
@@ -6004,13 +6004,13 @@
         <v>60</v>
       </c>
       <c r="R80">
-        <v>31.211265</v>
+        <v>30.16442</v>
       </c>
       <c r="S80">
-        <v>273.87155</v>
+        <v>278.10969</v>
       </c>
       <c r="T80">
-        <v>8735.2706</v>
+        <v>7097.0471</v>
       </c>
     </row>
     <row r="81" spans="1:20">
@@ -6066,13 +6066,13 @@
         <v>60</v>
       </c>
       <c r="R81">
-        <v>31.211265</v>
+        <v>30.16442</v>
       </c>
       <c r="S81">
-        <v>217.55966</v>
+        <v>225.33101</v>
       </c>
       <c r="T81">
-        <v>7198.2157</v>
+        <v>6046.6769</v>
       </c>
     </row>
     <row r="82" spans="1:20">
@@ -6128,13 +6128,13 @@
         <v>60</v>
       </c>
       <c r="R82">
-        <v>34.289037</v>
+        <v>34.274385</v>
       </c>
       <c r="S82">
-        <v>172.65227</v>
+        <v>166.08743</v>
       </c>
       <c r="T82">
-        <v>7711.3365</v>
+        <v>6408.7933</v>
       </c>
     </row>
     <row r="83" spans="1:20">
@@ -6190,13 +6190,13 @@
         <v>60</v>
       </c>
       <c r="R83">
-        <v>34.128233</v>
+        <v>31.974972</v>
       </c>
       <c r="S83">
-        <v>212.42026</v>
+        <v>235.55055</v>
       </c>
       <c r="T83">
-        <v>9570.780699999999</v>
+        <v>7744.933</v>
       </c>
     </row>
     <row r="84" spans="1:20">
@@ -6252,13 +6252,13 @@
         <v>60</v>
       </c>
       <c r="R84">
-        <v>34.128233</v>
+        <v>31.974972</v>
       </c>
       <c r="S84">
-        <v>168.09452</v>
+        <v>189.60469</v>
       </c>
       <c r="T84">
-        <v>7846.5803</v>
+        <v>6525.8995</v>
       </c>
     </row>
     <row r="85" spans="1:20">
@@ -6314,13 +6314,13 @@
         <v>60</v>
       </c>
       <c r="R85">
-        <v>37.621277</v>
+        <v>37.177909</v>
       </c>
       <c r="S85">
-        <v>131.79457</v>
+        <v>128.11329</v>
       </c>
       <c r="T85">
-        <v>8680.765600000001</v>
+        <v>7248.6217</v>
       </c>
     </row>
     <row r="86" spans="1:20">
@@ -6376,13 +6376,13 @@
         <v>47</v>
       </c>
       <c r="R86">
-        <v>31.211265</v>
+        <v>30.57852</v>
       </c>
       <c r="S86">
-        <v>273.87155</v>
+        <v>269.99181</v>
       </c>
       <c r="T86">
-        <v>8735.2706</v>
+        <v>7164.8658</v>
       </c>
     </row>
     <row r="87" spans="1:20">
@@ -6438,13 +6438,13 @@
         <v>47</v>
       </c>
       <c r="R87">
-        <v>31.211265</v>
+        <v>30.57852</v>
       </c>
       <c r="S87">
-        <v>217.55966</v>
+        <v>218.43851</v>
       </c>
       <c r="T87">
-        <v>7198.2157</v>
+        <v>6106.7763</v>
       </c>
     </row>
     <row r="88" spans="1:20">
@@ -6500,13 +6500,13 @@
         <v>47</v>
       </c>
       <c r="R88">
-        <v>34.289037</v>
+        <v>34.387518</v>
       </c>
       <c r="S88">
-        <v>172.65227</v>
+        <v>164.64827</v>
       </c>
       <c r="T88">
-        <v>7711.3365</v>
+        <v>6412.362</v>
       </c>
     </row>
     <row r="89" spans="1:20">
@@ -6562,13 +6562,13 @@
         <v>47</v>
       </c>
       <c r="R89">
-        <v>34.128233</v>
+        <v>32.588895</v>
       </c>
       <c r="S89">
-        <v>212.42026</v>
+        <v>225.69278</v>
       </c>
       <c r="T89">
-        <v>9570.780699999999</v>
+        <v>7872.6625</v>
       </c>
     </row>
     <row r="90" spans="1:20">
@@ -6624,13 +6624,13 @@
         <v>47</v>
       </c>
       <c r="R90">
-        <v>34.128233</v>
+        <v>32.588895</v>
       </c>
       <c r="S90">
-        <v>168.09452</v>
+        <v>181.39469</v>
       </c>
       <c r="T90">
-        <v>7846.5803</v>
+        <v>6639.8228</v>
       </c>
     </row>
     <row r="91" spans="1:20">
@@ -6686,13 +6686,13 @@
         <v>47</v>
       </c>
       <c r="R91">
-        <v>37.621277</v>
+        <v>37.3492</v>
       </c>
       <c r="S91">
-        <v>131.79457</v>
+        <v>127.36114</v>
       </c>
       <c r="T91">
-        <v>8680.765600000001</v>
+        <v>7284.9783</v>
       </c>
     </row>
     <row r="92" spans="1:20">
@@ -6748,13 +6748,13 @@
         <v>60</v>
       </c>
       <c r="R92">
-        <v>29.293206</v>
+        <v>28.188256</v>
       </c>
       <c r="S92">
-        <v>398.27859</v>
+        <v>411.56216</v>
       </c>
       <c r="T92">
-        <v>9853.7711</v>
+        <v>7807.7417</v>
       </c>
     </row>
     <row r="93" spans="1:20">
@@ -6810,13 +6810,13 @@
         <v>60</v>
       </c>
       <c r="R93">
-        <v>29.293206</v>
+        <v>28.188256</v>
       </c>
       <c r="S93">
-        <v>316.74778</v>
+        <v>333.71295</v>
       </c>
       <c r="T93">
-        <v>8182.4837</v>
+        <v>6715.3908</v>
       </c>
     </row>
     <row r="94" spans="1:20">
@@ -6872,13 +6872,13 @@
         <v>60</v>
       </c>
       <c r="R94">
-        <v>30.103162</v>
+        <v>28.996976</v>
       </c>
       <c r="S94">
-        <v>312.96131</v>
+        <v>323.10051</v>
       </c>
       <c r="T94">
-        <v>8461.000899999999</v>
+        <v>6726.8317</v>
       </c>
     </row>
     <row r="95" spans="1:20">
@@ -6934,13 +6934,13 @@
         <v>60</v>
       </c>
       <c r="R95">
-        <v>38.439803</v>
+        <v>39.144748</v>
       </c>
       <c r="S95">
-        <v>175.68705</v>
+        <v>158.75466</v>
       </c>
       <c r="T95">
-        <v>11952.536</v>
+        <v>9801.901099999999</v>
       </c>
     </row>
     <row r="96" spans="1:20">
@@ -6996,13 +6996,13 @@
         <v>60</v>
       </c>
       <c r="R96">
-        <v>38.439803</v>
+        <v>39.144748</v>
       </c>
       <c r="S96">
-        <v>138.60061</v>
+        <v>126.31966</v>
       </c>
       <c r="T96">
-        <v>9948.619000000001</v>
+        <v>8432.9084</v>
       </c>
     </row>
     <row r="97" spans="1:20">
@@ -7058,13 +7058,13 @@
         <v>60</v>
       </c>
       <c r="R97">
-        <v>40.081671</v>
+        <v>41.112633</v>
       </c>
       <c r="S97">
-        <v>127.15115</v>
+        <v>113.11636</v>
       </c>
       <c r="T97">
-        <v>10381.194</v>
+        <v>8614.146000000001</v>
       </c>
     </row>
     <row r="98" spans="1:20">
@@ -7120,13 +7120,13 @@
         <v>47</v>
       </c>
       <c r="R98">
-        <v>29.293206</v>
+        <v>28.379745</v>
       </c>
       <c r="S98">
-        <v>398.27859</v>
+        <v>404.47252</v>
       </c>
       <c r="T98">
-        <v>9853.7711</v>
+        <v>7858.1465</v>
       </c>
     </row>
     <row r="99" spans="1:20">
@@ -7182,13 +7182,13 @@
         <v>47</v>
       </c>
       <c r="R99">
-        <v>29.293206</v>
+        <v>28.379745</v>
       </c>
       <c r="S99">
-        <v>316.74778</v>
+        <v>327.39157</v>
       </c>
       <c r="T99">
-        <v>8182.4837</v>
+        <v>6751.0198</v>
       </c>
     </row>
     <row r="100" spans="1:20">
@@ -7244,13 +7244,13 @@
         <v>47</v>
       </c>
       <c r="R100">
-        <v>30.103162</v>
+        <v>29.162851</v>
       </c>
       <c r="S100">
-        <v>312.96131</v>
+        <v>317.23772</v>
       </c>
       <c r="T100">
-        <v>8461.000899999999</v>
+        <v>6741.2426</v>
       </c>
     </row>
     <row r="101" spans="1:20">
@@ -7306,13 +7306,13 @@
         <v>47</v>
       </c>
       <c r="R101">
-        <v>38.439803</v>
+        <v>39.066989</v>
       </c>
       <c r="S101">
-        <v>175.68705</v>
+        <v>160.58754</v>
       </c>
       <c r="T101">
-        <v>11952.536</v>
+        <v>9834.0573</v>
       </c>
     </row>
     <row r="102" spans="1:20">
@@ -7368,13 +7368,13 @@
         <v>47</v>
       </c>
       <c r="R102">
-        <v>38.439803</v>
+        <v>39.066989</v>
       </c>
       <c r="S102">
-        <v>138.60061</v>
+        <v>127.7966</v>
       </c>
       <c r="T102">
-        <v>9948.619000000001</v>
+        <v>8458.6662</v>
       </c>
     </row>
     <row r="103" spans="1:20">
@@ -7430,13 +7430,13 @@
         <v>47</v>
       </c>
       <c r="R103">
-        <v>40.081671</v>
+        <v>40.928781</v>
       </c>
       <c r="S103">
-        <v>127.15115</v>
+        <v>115.06413</v>
       </c>
       <c r="T103">
-        <v>10381.194</v>
+        <v>8603.4432</v>
       </c>
     </row>
     <row r="104" spans="1:20">
@@ -7492,13 +7492,13 @@
         <v>35</v>
       </c>
       <c r="R104">
-        <v>38.981174</v>
+        <v>40.117372</v>
       </c>
       <c r="S104">
-        <v>139.4725</v>
+        <v>124.37389</v>
       </c>
       <c r="T104">
-        <v>10382.637</v>
+        <v>8714.2716</v>
       </c>
     </row>
     <row r="105" spans="1:20">
@@ -7554,13 +7554,13 @@
         <v>47</v>
       </c>
       <c r="R105">
-        <v>29.212901</v>
+        <v>28.152788</v>
       </c>
       <c r="S105">
-        <v>564.76112</v>
+        <v>581.41704</v>
       </c>
       <c r="T105">
-        <v>13501.505</v>
+        <v>10444.941</v>
       </c>
     </row>
     <row r="106" spans="1:20">
@@ -7616,13 +7616,13 @@
         <v>47</v>
       </c>
       <c r="R106">
-        <v>40.816413</v>
+        <v>42.448119</v>
       </c>
       <c r="S106">
-        <v>195.23377</v>
+        <v>165.84826</v>
       </c>
       <c r="T106">
-        <v>16741.965</v>
+        <v>13415.722</v>
       </c>
     </row>
     <row r="107" spans="1:20">
@@ -7678,13 +7678,13 @@
         <v>60</v>
       </c>
       <c r="R107">
-        <v>34.434324</v>
+        <v>34.661397</v>
       </c>
       <c r="S107">
-        <v>126.81024</v>
+        <v>121.38167</v>
       </c>
       <c r="T107">
-        <v>5963.1007</v>
+        <v>5165.2554</v>
       </c>
     </row>
     <row r="108" spans="1:20">
@@ -7740,13 +7740,13 @@
         <v>60</v>
       </c>
       <c r="R108">
-        <v>38.172213</v>
+        <v>38.196778</v>
       </c>
       <c r="S108">
-        <v>96.138059</v>
+        <v>92.312439</v>
       </c>
       <c r="T108">
-        <v>6883.2156</v>
+        <v>5942.6462</v>
       </c>
     </row>
     <row r="109" spans="1:20">
@@ -7802,13 +7802,13 @@
         <v>60</v>
       </c>
       <c r="R109">
-        <v>34.681832</v>
+        <v>34.95603</v>
       </c>
       <c r="S109">
-        <v>133.73764</v>
+        <v>128.34167</v>
       </c>
       <c r="T109">
-        <v>6460.9772</v>
+        <v>5549.6799</v>
       </c>
     </row>
     <row r="110" spans="1:20">
@@ -7864,13 +7864,13 @@
         <v>60</v>
       </c>
       <c r="R110">
-        <v>38.972646</v>
+        <v>39.209107</v>
       </c>
       <c r="S110">
-        <v>96.668987</v>
+        <v>91.49461100000001</v>
       </c>
       <c r="T110">
-        <v>7554.0292</v>
+        <v>6518.9765</v>
       </c>
     </row>
     <row r="111" spans="1:20">
@@ -7926,13 +7926,13 @@
         <v>60</v>
       </c>
       <c r="R111">
-        <v>30.007245</v>
+        <v>28.907049</v>
       </c>
       <c r="S111">
-        <v>251.28906</v>
+        <v>262.74881</v>
       </c>
       <c r="T111">
-        <v>7015.7832</v>
+        <v>5741.4825</v>
       </c>
     </row>
     <row r="112" spans="1:20">
@@ -7988,13 +7988,13 @@
         <v>60</v>
       </c>
       <c r="R112">
-        <v>40.340048</v>
+        <v>41.596481</v>
       </c>
       <c r="S112">
-        <v>98.104024</v>
+        <v>86.493235</v>
       </c>
       <c r="T112">
-        <v>8667.171399999999</v>
+        <v>7404.3326</v>
       </c>
     </row>
     <row r="113" spans="1:20">
@@ -8050,13 +8050,13 @@
         <v>47</v>
       </c>
       <c r="R113">
-        <v>29.212901</v>
+        <v>28.152788</v>
       </c>
       <c r="S113">
-        <v>450.20512</v>
+        <v>476.32191</v>
       </c>
       <c r="T113">
-        <v>11281.965</v>
+        <v>9075.773499999999</v>
       </c>
     </row>
     <row r="114" spans="1:20">
@@ -8112,13 +8112,13 @@
         <v>47</v>
       </c>
       <c r="R114">
-        <v>29.710722</v>
+        <v>28.665182</v>
       </c>
       <c r="S114">
-        <v>451.35467</v>
+        <v>462.77605</v>
       </c>
       <c r="T114">
-        <v>11419.688</v>
+        <v>8864.618200000001</v>
       </c>
     </row>
     <row r="115" spans="1:20">
@@ -8174,13 +8174,13 @@
         <v>47</v>
       </c>
       <c r="R115">
-        <v>29.710722</v>
+        <v>28.665182</v>
       </c>
       <c r="S115">
-        <v>359.63572</v>
+        <v>377.82621</v>
       </c>
       <c r="T115">
-        <v>9540.0874</v>
+        <v>7685.2234</v>
       </c>
     </row>
     <row r="116" spans="1:20">
@@ -8236,13 +8236,13 @@
         <v>47</v>
       </c>
       <c r="R116">
-        <v>40.816413</v>
+        <v>42.448119</v>
       </c>
       <c r="S116">
-        <v>153.99557</v>
+        <v>131.90433</v>
       </c>
       <c r="T116">
-        <v>14033.792</v>
+        <v>11661.899</v>
       </c>
     </row>
     <row r="117" spans="1:20">
@@ -8298,13 +8298,13 @@
         <v>47</v>
       </c>
       <c r="R117">
-        <v>42.189193</v>
+        <v>43.7395</v>
       </c>
       <c r="S117">
-        <v>143.00565</v>
+        <v>122.12386</v>
       </c>
       <c r="T117">
-        <v>14306.825</v>
+        <v>11523.4</v>
       </c>
     </row>
     <row r="118" spans="1:20">
@@ -8360,13 +8360,13 @@
         <v>47</v>
       </c>
       <c r="R118">
-        <v>42.189193</v>
+        <v>43.7395</v>
       </c>
       <c r="S118">
-        <v>112.7285</v>
+        <v>97.011804</v>
       </c>
       <c r="T118">
-        <v>11995.514</v>
+        <v>10004.762</v>
       </c>
     </row>
     <row r="119" spans="1:20">
@@ -8422,13 +8422,13 @@
         <v>60</v>
       </c>
       <c r="R119">
-        <v>31.554503</v>
+        <v>31.289701</v>
       </c>
       <c r="S119">
-        <v>250.52487</v>
+        <v>242.19471</v>
       </c>
       <c r="T119">
-        <v>8208.118</v>
+        <v>6778.4063</v>
       </c>
     </row>
     <row r="120" spans="1:20">
@@ -8484,13 +8484,13 @@
         <v>60</v>
       </c>
       <c r="R120">
-        <v>31.554503</v>
+        <v>31.289701</v>
       </c>
       <c r="S120">
-        <v>198.8938</v>
+        <v>195.15218</v>
       </c>
       <c r="T120">
-        <v>6779.0715</v>
+        <v>5787.3154</v>
       </c>
     </row>
     <row r="121" spans="1:20">
@@ -8546,13 +8546,13 @@
         <v>60</v>
       </c>
       <c r="R121">
-        <v>34.434324</v>
+        <v>34.661397</v>
       </c>
       <c r="S121">
-        <v>160.43913</v>
+        <v>151.88448</v>
       </c>
       <c r="T121">
-        <v>7221.0281</v>
+        <v>6048.828</v>
       </c>
     </row>
     <row r="122" spans="1:20">
@@ -8608,13 +8608,13 @@
         <v>60</v>
       </c>
       <c r="R122">
-        <v>34.982871</v>
+        <v>33.920723</v>
       </c>
       <c r="S122">
-        <v>192.16367</v>
+        <v>196.61784</v>
       </c>
       <c r="T122">
-        <v>9272.3968</v>
+        <v>7600.1548</v>
       </c>
     </row>
     <row r="123" spans="1:20">
@@ -8670,13 +8670,13 @@
         <v>60</v>
       </c>
       <c r="R123">
-        <v>34.982871</v>
+        <v>33.920723</v>
       </c>
       <c r="S123">
-        <v>152.04213</v>
+        <v>157.68785</v>
       </c>
       <c r="T123">
-        <v>7651.6295</v>
+        <v>6453.5416</v>
       </c>
     </row>
     <row r="124" spans="1:20">
@@ -8732,13 +8732,13 @@
         <v>60</v>
       </c>
       <c r="R124">
-        <v>38.172213</v>
+        <v>38.196778</v>
       </c>
       <c r="S124">
-        <v>121.91721</v>
+        <v>116.0364</v>
       </c>
       <c r="T124">
-        <v>8326.0592</v>
+        <v>6979.7635</v>
       </c>
     </row>
     <row r="125" spans="1:20">
@@ -8794,13 +8794,13 @@
         <v>47</v>
       </c>
       <c r="R125">
-        <v>31.554503</v>
+        <v>31.419867</v>
       </c>
       <c r="S125">
-        <v>250.52487</v>
+        <v>240.21324</v>
       </c>
       <c r="T125">
-        <v>8208.118</v>
+        <v>6808.1394</v>
       </c>
     </row>
     <row r="126" spans="1:20">
@@ -8856,13 +8856,13 @@
         <v>47</v>
       </c>
       <c r="R126">
-        <v>31.554503</v>
+        <v>31.419867</v>
       </c>
       <c r="S126">
-        <v>198.8938</v>
+        <v>193.50383</v>
       </c>
       <c r="T126">
-        <v>6779.0715</v>
+        <v>5813.56</v>
       </c>
     </row>
     <row r="127" spans="1:20">
@@ -8918,13 +8918,13 @@
         <v>47</v>
       </c>
       <c r="R127">
-        <v>34.434324</v>
+        <v>34.659378</v>
       </c>
       <c r="S127">
-        <v>160.43913</v>
+        <v>151.86446</v>
       </c>
       <c r="T127">
-        <v>7221.0281</v>
+        <v>6042.5505</v>
       </c>
     </row>
     <row r="128" spans="1:20">
@@ -8980,13 +8980,13 @@
         <v>47</v>
       </c>
       <c r="R128">
-        <v>34.982871</v>
+        <v>34.237449</v>
       </c>
       <c r="S128">
-        <v>192.16367</v>
+        <v>192.96025</v>
       </c>
       <c r="T128">
-        <v>9272.3968</v>
+        <v>7664.5996</v>
       </c>
     </row>
     <row r="129" spans="1:20">
@@ -9042,13 +9042,13 @@
         <v>47</v>
       </c>
       <c r="R129">
-        <v>34.982871</v>
+        <v>34.237449</v>
       </c>
       <c r="S129">
-        <v>152.04213</v>
+        <v>154.6663</v>
       </c>
       <c r="T129">
-        <v>7651.6295</v>
+        <v>6514.6529</v>
       </c>
     </row>
     <row r="130" spans="1:20">
@@ -9104,13 +9104,13 @@
         <v>47</v>
       </c>
       <c r="R130">
-        <v>38.172213</v>
+        <v>38.253722</v>
       </c>
       <c r="S130">
-        <v>121.91721</v>
+        <v>116.07921</v>
       </c>
       <c r="T130">
-        <v>8326.0592</v>
+        <v>6981.8765</v>
       </c>
     </row>
     <row r="131" spans="1:20">
@@ -9166,13 +9166,13 @@
         <v>60</v>
       </c>
       <c r="R131">
-        <v>31.894452</v>
+        <v>31.418323</v>
       </c>
       <c r="S131">
-        <v>262.82686</v>
+        <v>258.95478</v>
       </c>
       <c r="T131">
-        <v>8939.352800000001</v>
+        <v>7297.5782</v>
       </c>
     </row>
     <row r="132" spans="1:20">
@@ -9228,13 +9228,13 @@
         <v>60</v>
       </c>
       <c r="R132">
-        <v>31.894452</v>
+        <v>31.418323</v>
       </c>
       <c r="S132">
-        <v>208.70403</v>
+        <v>209.42546</v>
       </c>
       <c r="T132">
-        <v>7387.2214</v>
+        <v>6249.3793</v>
       </c>
     </row>
     <row r="133" spans="1:20">
@@ -9290,13 +9290,13 @@
         <v>60</v>
       </c>
       <c r="R133">
-        <v>34.681832</v>
+        <v>34.95603</v>
       </c>
       <c r="S133">
-        <v>169.202</v>
+        <v>160.44933</v>
       </c>
       <c r="T133">
-        <v>7821.035</v>
+        <v>6479.3156</v>
       </c>
     </row>
     <row r="134" spans="1:20">
@@ -9352,13 +9352,13 @@
         <v>60</v>
       </c>
       <c r="R134">
-        <v>36.196345</v>
+        <v>35.248269</v>
       </c>
       <c r="S134">
-        <v>186.8778</v>
+        <v>190.69687</v>
       </c>
       <c r="T134">
-        <v>10283.802</v>
+        <v>8423.626099999999</v>
       </c>
     </row>
     <row r="135" spans="1:20">
@@ -9414,13 +9414,13 @@
         <v>60</v>
       </c>
       <c r="R135">
-        <v>36.196345</v>
+        <v>35.248269</v>
       </c>
       <c r="S135">
-        <v>147.72765</v>
+        <v>152.79155</v>
       </c>
       <c r="T135">
-        <v>8496.0725</v>
+        <v>7170.5318</v>
       </c>
     </row>
     <row r="136" spans="1:20">
@@ -9476,13 +9476,13 @@
         <v>60</v>
       </c>
       <c r="R136">
-        <v>38.972646</v>
+        <v>39.209107</v>
       </c>
       <c r="S136">
-        <v>122.61001</v>
+        <v>115.05343</v>
       </c>
       <c r="T136">
-        <v>9126.846</v>
+        <v>7638.0894</v>
       </c>
     </row>
     <row r="137" spans="1:20">
@@ -9538,13 +9538,13 @@
         <v>47</v>
       </c>
       <c r="R137">
-        <v>31.894452</v>
+        <v>31.674297</v>
       </c>
       <c r="S137">
-        <v>262.82686</v>
+        <v>253.76568</v>
       </c>
       <c r="T137">
-        <v>8939.352800000001</v>
+        <v>7338.3755</v>
       </c>
     </row>
     <row r="138" spans="1:20">
@@ -9600,13 +9600,13 @@
         <v>47</v>
       </c>
       <c r="R138">
-        <v>31.894452</v>
+        <v>31.674297</v>
       </c>
       <c r="S138">
-        <v>208.70403</v>
+        <v>204.99306</v>
       </c>
       <c r="T138">
-        <v>7387.2214</v>
+        <v>6283.208</v>
       </c>
     </row>
     <row r="139" spans="1:20">
@@ -9662,13 +9662,13 @@
         <v>47</v>
       </c>
       <c r="R139">
-        <v>34.681832</v>
+        <v>34.983061</v>
       </c>
       <c r="S139">
-        <v>169.202</v>
+        <v>159.79603</v>
       </c>
       <c r="T139">
-        <v>7821.035</v>
+        <v>6475.8282</v>
       </c>
     </row>
     <row r="140" spans="1:20">
@@ -9724,13 +9724,13 @@
         <v>47</v>
       </c>
       <c r="R140">
-        <v>36.196345</v>
+        <v>35.581156</v>
       </c>
       <c r="S140">
-        <v>186.8778</v>
+        <v>186.62903</v>
       </c>
       <c r="T140">
-        <v>10283.802</v>
+        <v>8492.7781</v>
       </c>
     </row>
     <row r="141" spans="1:20">
@@ -9786,13 +9786,13 @@
         <v>47</v>
       </c>
       <c r="R141">
-        <v>36.196345</v>
+        <v>35.581156</v>
       </c>
       <c r="S141">
-        <v>147.72765</v>
+        <v>149.41396</v>
       </c>
       <c r="T141">
-        <v>8496.0725</v>
+        <v>7234.21</v>
       </c>
     </row>
     <row r="142" spans="1:20">
@@ -9848,13 +9848,13 @@
         <v>47</v>
       </c>
       <c r="R142">
-        <v>38.972646</v>
+        <v>39.225297</v>
       </c>
       <c r="S142">
-        <v>122.61001</v>
+        <v>115.39207</v>
       </c>
       <c r="T142">
-        <v>9126.846</v>
+        <v>7638.9152</v>
       </c>
     </row>
     <row r="143" spans="1:20">
@@ -9910,13 +9910,13 @@
         <v>60</v>
       </c>
       <c r="R143">
-        <v>29.184751</v>
+        <v>28.129293</v>
       </c>
       <c r="S143">
-        <v>403.12914</v>
+        <v>412.19964</v>
       </c>
       <c r="T143">
-        <v>9830.983700000001</v>
+        <v>7741.4798</v>
       </c>
     </row>
     <row r="144" spans="1:20">
@@ -9972,13 +9972,13 @@
         <v>60</v>
       </c>
       <c r="R144">
-        <v>29.184751</v>
+        <v>28.129293</v>
       </c>
       <c r="S144">
-        <v>320.82345</v>
+        <v>335.02498</v>
       </c>
       <c r="T144">
-        <v>8170.5416</v>
+        <v>6668.8449</v>
       </c>
     </row>
     <row r="145" spans="1:20">
@@ -10034,13 +10034,13 @@
         <v>60</v>
       </c>
       <c r="R145">
-        <v>30.007245</v>
+        <v>28.907049</v>
       </c>
       <c r="S145">
-        <v>316.21394</v>
+        <v>324.80977</v>
       </c>
       <c r="T145">
-        <v>8443.300499999999</v>
+        <v>6683.8176</v>
       </c>
     </row>
     <row r="146" spans="1:20">
@@ -10096,13 +10096,13 @@
         <v>60</v>
       </c>
       <c r="R146">
-        <v>38.796731</v>
+        <v>40.004731</v>
       </c>
       <c r="S146">
-        <v>170.58244</v>
+        <v>148.9493</v>
       </c>
       <c r="T146">
-        <v>11977.056</v>
+        <v>9792.9887</v>
       </c>
     </row>
     <row r="147" spans="1:20">
@@ -10158,13 +10158,13 @@
         <v>60</v>
       </c>
       <c r="R147">
-        <v>38.796731</v>
+        <v>40.004731</v>
       </c>
       <c r="S147">
-        <v>134.57528</v>
+        <v>118.46067</v>
       </c>
       <c r="T147">
-        <v>9986.3433</v>
+        <v>8454.8015</v>
       </c>
     </row>
     <row r="148" spans="1:20">
@@ -10220,13 +10220,13 @@
         <v>60</v>
       </c>
       <c r="R148">
-        <v>40.340048</v>
+        <v>41.596481</v>
       </c>
       <c r="S148">
-        <v>124.47069</v>
+        <v>108.93352</v>
       </c>
       <c r="T148">
-        <v>10392.927</v>
+        <v>8583.1459</v>
       </c>
     </row>
     <row r="149" spans="1:20">
@@ -10282,13 +10282,13 @@
         <v>47</v>
       </c>
       <c r="R149">
-        <v>29.184751</v>
+        <v>28.291747</v>
       </c>
       <c r="S149">
-        <v>403.12914</v>
+        <v>406.94318</v>
       </c>
       <c r="T149">
-        <v>9830.983700000001</v>
+        <v>7804.0942</v>
       </c>
     </row>
     <row r="150" spans="1:20">
@@ -10344,13 +10344,13 @@
         <v>47</v>
       </c>
       <c r="R150">
-        <v>29.184751</v>
+        <v>28.291747</v>
       </c>
       <c r="S150">
-        <v>320.82345</v>
+        <v>330.00084</v>
       </c>
       <c r="T150">
-        <v>8170.5416</v>
+        <v>6713.4318</v>
       </c>
     </row>
     <row r="151" spans="1:20">
@@ -10406,13 +10406,13 @@
         <v>47</v>
       </c>
       <c r="R151">
-        <v>30.007245</v>
+        <v>29.066389</v>
       </c>
       <c r="S151">
-        <v>316.21394</v>
+        <v>319.53682</v>
       </c>
       <c r="T151">
-        <v>8443.300499999999</v>
+        <v>6705.6181</v>
       </c>
     </row>
     <row r="152" spans="1:20">
@@ -10468,13 +10468,13 @@
         <v>47</v>
       </c>
       <c r="R152">
-        <v>38.796731</v>
+        <v>39.776055</v>
       </c>
       <c r="S152">
-        <v>170.58244</v>
+        <v>152.27261</v>
       </c>
       <c r="T152">
-        <v>11977.056</v>
+        <v>9822.3089</v>
       </c>
     </row>
     <row r="153" spans="1:20">
@@ -10530,13 +10530,13 @@
         <v>47</v>
       </c>
       <c r="R153">
-        <v>38.796731</v>
+        <v>39.776055</v>
       </c>
       <c r="S153">
-        <v>134.57528</v>
+        <v>121.12987</v>
       </c>
       <c r="T153">
-        <v>9986.3433</v>
+        <v>8473.3405</v>
       </c>
     </row>
     <row r="154" spans="1:20">
@@ -10592,13 +10592,13 @@
         <v>47</v>
       </c>
       <c r="R154">
-        <v>40.340048</v>
+        <v>41.344888</v>
       </c>
       <c r="S154">
-        <v>124.47069</v>
+        <v>111.38265</v>
       </c>
       <c r="T154">
-        <v>10392.927</v>
+        <v>8577.373100000001</v>
       </c>
     </row>
     <row r="155" spans="1:20" s="1" customFormat="1">
@@ -10668,13 +10668,13 @@
         <v>221</v>
       </c>
       <c r="R156" s="1">
-        <v>28.763346</v>
+        <v>27.719826</v>
       </c>
       <c r="S156" s="1">
-        <v>88.825632</v>
+        <v>81.22638499999999</v>
       </c>
       <c r="T156" s="1">
-        <v>5870.4533</v>
+        <v>5083.1548</v>
       </c>
     </row>
     <row r="157" spans="1:20" s="1" customFormat="1">
@@ -10682,13 +10682,13 @@
         <v>222</v>
       </c>
       <c r="R157" s="1">
-        <v>42.434112</v>
+        <v>44.022074</v>
       </c>
       <c r="S157" s="1">
-        <v>572.7556</v>
+        <v>583.32055</v>
       </c>
       <c r="T157" s="1">
-        <v>16777.444</v>
+        <v>13419.714</v>
       </c>
     </row>
     <row r="158" spans="1:20" s="1" customFormat="1">
@@ -10734,13 +10734,13 @@
         <v>227</v>
       </c>
       <c r="R162" s="1">
-        <v>34.8699473006536</v>
+        <v>34.81591976470587</v>
       </c>
       <c r="S162" s="1">
-        <v>209.8885033333334</v>
+        <v>206.3581159346407</v>
       </c>
       <c r="T162" s="1">
-        <v>9204.028057516334</v>
+        <v>7586.850491503265</v>
       </c>
     </row>
     <row r="163" spans="17:20" s="1" customFormat="1">
@@ -10748,13 +10748,13 @@
         <v>228</v>
       </c>
       <c r="R163" s="1">
-        <v>4.121957900533966</v>
+        <v>4.958269404275304</v>
       </c>
       <c r="S163" s="1">
-        <v>105.1350897860698</v>
+        <v>112.8792474730344</v>
       </c>
       <c r="T163" s="1">
-        <v>2186.58383695043</v>
+        <v>1685.395590540789</v>
       </c>
     </row>
     <row r="164" spans="17:20" s="1" customFormat="1">
@@ -10762,13 +10762,13 @@
         <v>229</v>
       </c>
       <c r="R164" s="1">
-        <v>11.82094674532733</v>
+        <v>14.24138565858506</v>
       </c>
       <c r="S164" s="1">
-        <v>50.09092356959641</v>
+        <v>54.70065810679645</v>
       </c>
       <c r="T164" s="1">
-        <v>23.75681411754051</v>
+        <v>22.21469359951554</v>
       </c>
     </row>
     <row r="165" spans="17:20" s="1" customFormat="1"/>

--- a/dcd_opamp_ac_pre_tsmc2p_meas.xlsx
+++ b/dcd_opamp_ac_pre_tsmc2p_meas.xlsx
@@ -1168,13 +1168,13 @@
         <v>35</v>
       </c>
       <c r="R2">
-        <v>40.563439</v>
+        <v>41.065771</v>
       </c>
       <c r="S2">
-        <v>120.17243</v>
+        <v>125.29196</v>
       </c>
       <c r="T2">
-        <v>8681.6643</v>
+        <v>9001.873600000001</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -1230,13 +1230,13 @@
         <v>47</v>
       </c>
       <c r="R3">
-        <v>28.045319</v>
+        <v>28.394061</v>
       </c>
       <c r="S3">
-        <v>573.6704</v>
+        <v>588.08376</v>
       </c>
       <c r="T3">
-        <v>10285.315</v>
+        <v>10528.715</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -1292,13 +1292,13 @@
         <v>47</v>
       </c>
       <c r="R4">
-        <v>42.783584</v>
+        <v>43.446589</v>
       </c>
       <c r="S4">
-        <v>161.39423</v>
+        <v>167.34974</v>
       </c>
       <c r="T4">
-        <v>13350.491</v>
+        <v>13758.262</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -1354,13 +1354,13 @@
         <v>60</v>
       </c>
       <c r="R5">
-        <v>35.225341</v>
+        <v>35.591422</v>
       </c>
       <c r="S5">
-        <v>116.08664</v>
+        <v>121.26519</v>
       </c>
       <c r="T5">
-        <v>5155.1034</v>
+        <v>5374.8564</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -1416,13 +1416,13 @@
         <v>60</v>
       </c>
       <c r="R6">
-        <v>39.910323</v>
+        <v>40.203489</v>
       </c>
       <c r="S6">
-        <v>81.22638499999999</v>
+        <v>85.32725600000001</v>
       </c>
       <c r="T6">
-        <v>6015.7746</v>
+        <v>6261.7909</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -1478,13 +1478,13 @@
         <v>60</v>
       </c>
       <c r="R7">
-        <v>35.440058</v>
+        <v>35.790145</v>
       </c>
       <c r="S7">
-        <v>124.85765</v>
+        <v>130.64817</v>
       </c>
       <c r="T7">
-        <v>5574.3123</v>
+        <v>5793.5599</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -1540,13 +1540,13 @@
         <v>60</v>
       </c>
       <c r="R8">
-        <v>40.67531</v>
+        <v>40.993475</v>
       </c>
       <c r="S8">
-        <v>84.13645200000001</v>
+        <v>88.264466</v>
       </c>
       <c r="T8">
-        <v>6707.9987</v>
+        <v>6973.5071</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1602,13 +1602,13 @@
         <v>60</v>
       </c>
       <c r="R9">
-        <v>28.518508</v>
+        <v>28.715535</v>
       </c>
       <c r="S9">
-        <v>266.84687</v>
+        <v>280.97177</v>
       </c>
       <c r="T9">
-        <v>5615.0396</v>
+        <v>5827.2199</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1664,13 +1664,13 @@
         <v>60</v>
       </c>
       <c r="R10">
-        <v>41.912333</v>
+        <v>42.366219</v>
       </c>
       <c r="S10">
-        <v>81.98989400000001</v>
+        <v>85.064234</v>
       </c>
       <c r="T10">
-        <v>7204.6319</v>
+        <v>7457.3587</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1726,13 +1726,13 @@
         <v>47</v>
       </c>
       <c r="R11">
-        <v>28.045319</v>
+        <v>28.394061</v>
       </c>
       <c r="S11">
-        <v>471.26968</v>
+        <v>480.10325</v>
       </c>
       <c r="T11">
-        <v>8939.534900000001</v>
+        <v>9133.414500000001</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1788,13 +1788,13 @@
         <v>47</v>
       </c>
       <c r="R12">
-        <v>28.589756</v>
+        <v>28.835951</v>
       </c>
       <c r="S12">
-        <v>458.77363</v>
+        <v>479.857</v>
       </c>
       <c r="T12">
-        <v>8767.314899999999</v>
+        <v>9019.7435</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1850,13 +1850,13 @@
         <v>47</v>
       </c>
       <c r="R13">
-        <v>28.589756</v>
+        <v>28.835951</v>
       </c>
       <c r="S13">
-        <v>375.32524</v>
+        <v>389.18064</v>
       </c>
       <c r="T13">
-        <v>7603.2564</v>
+        <v>7803.3048</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1912,13 +1912,13 @@
         <v>47</v>
       </c>
       <c r="R14">
-        <v>42.783584</v>
+        <v>43.446589</v>
       </c>
       <c r="S14">
-        <v>128.36866</v>
+        <v>130.85983</v>
       </c>
       <c r="T14">
-        <v>11619.625</v>
+        <v>11944.86</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1974,13 +1974,13 @@
         <v>47</v>
       </c>
       <c r="R15">
-        <v>44.022074</v>
+        <v>44.553036</v>
       </c>
       <c r="S15">
-        <v>119.30077</v>
+        <v>124.80258</v>
       </c>
       <c r="T15">
-        <v>11474.948</v>
+        <v>11833.463</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -2036,13 +2036,13 @@
         <v>47</v>
       </c>
       <c r="R16">
-        <v>44.022074</v>
+        <v>44.553036</v>
       </c>
       <c r="S16">
-        <v>94.770563</v>
+        <v>97.44025999999999</v>
       </c>
       <c r="T16">
-        <v>9973.3343</v>
+        <v>10254.134</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -2098,13 +2098,13 @@
         <v>60</v>
       </c>
       <c r="R17">
-        <v>32.56167</v>
+        <v>33.084659</v>
       </c>
       <c r="S17">
-        <v>219.06789</v>
+        <v>229.4936</v>
       </c>
       <c r="T17">
-        <v>6800.7266</v>
+        <v>7144.3713</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -2160,13 +2160,13 @@
         <v>60</v>
       </c>
       <c r="R18">
-        <v>32.56167</v>
+        <v>33.084659</v>
       </c>
       <c r="S18">
-        <v>176.16495</v>
+        <v>181.62984</v>
       </c>
       <c r="T18">
-        <v>5831.4876</v>
+        <v>6104.717</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -2222,13 +2222,13 @@
         <v>60</v>
       </c>
       <c r="R19">
-        <v>35.225341</v>
+        <v>35.591422</v>
       </c>
       <c r="S19">
-        <v>145.3137</v>
+        <v>154.34604</v>
       </c>
       <c r="T19">
-        <v>6019.0794</v>
+        <v>6298.8923</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -2284,13 +2284,13 @@
         <v>60</v>
       </c>
       <c r="R20">
-        <v>37.222139</v>
+        <v>37.600318</v>
       </c>
       <c r="S20">
-        <v>152.38875</v>
+        <v>161.6743</v>
       </c>
       <c r="T20">
-        <v>7837.0632</v>
+        <v>8219.6327</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -2346,13 +2346,13 @@
         <v>60</v>
       </c>
       <c r="R21">
-        <v>37.222139</v>
+        <v>37.600318</v>
       </c>
       <c r="S21">
-        <v>121.55544</v>
+        <v>126.74397</v>
       </c>
       <c r="T21">
-        <v>6719.9758</v>
+        <v>7018.9194</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -2408,13 +2408,13 @@
         <v>60</v>
       </c>
       <c r="R22">
-        <v>39.910323</v>
+        <v>40.203489</v>
       </c>
       <c r="S22">
-        <v>102.26322</v>
+        <v>109.35504</v>
       </c>
       <c r="T22">
-        <v>7013.6866</v>
+        <v>7330.5813</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -2470,13 +2470,13 @@
         <v>47</v>
       </c>
       <c r="R23">
-        <v>32.503454</v>
+        <v>32.913198</v>
       </c>
       <c r="S23">
-        <v>220.37071</v>
+        <v>232.18449</v>
       </c>
       <c r="T23">
-        <v>6821.5309</v>
+        <v>7158.1908</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -2532,13 +2532,13 @@
         <v>47</v>
       </c>
       <c r="R24">
-        <v>32.503454</v>
+        <v>32.913198</v>
       </c>
       <c r="S24">
-        <v>177.18468</v>
+        <v>183.78937</v>
       </c>
       <c r="T24">
-        <v>5846.4211</v>
+        <v>6110.9066</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2594,13 +2594,13 @@
         <v>47</v>
       </c>
       <c r="R25">
-        <v>35.145526</v>
+        <v>35.435002</v>
       </c>
       <c r="S25">
-        <v>146.15494</v>
+        <v>155.69954</v>
       </c>
       <c r="T25">
-        <v>6015.3505</v>
+        <v>6290.6941</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2656,13 +2656,13 @@
         <v>47</v>
       </c>
       <c r="R26">
-        <v>37.162682</v>
+        <v>37.461172</v>
       </c>
       <c r="S26">
-        <v>153.75541</v>
+        <v>163.63808</v>
       </c>
       <c r="T26">
-        <v>7851.1682</v>
+        <v>8219.823700000001</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2718,13 +2718,13 @@
         <v>47</v>
       </c>
       <c r="R27">
-        <v>37.162682</v>
+        <v>37.461172</v>
       </c>
       <c r="S27">
-        <v>122.65698</v>
+        <v>128.35036</v>
       </c>
       <c r="T27">
-        <v>6732.2825</v>
+        <v>7017.7553</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2780,13 +2780,13 @@
         <v>47</v>
       </c>
       <c r="R28">
-        <v>39.764439</v>
+        <v>39.995992</v>
       </c>
       <c r="S28">
-        <v>103.70453</v>
+        <v>111.08539</v>
       </c>
       <c r="T28">
-        <v>6998.81</v>
+        <v>7305.8975</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2842,13 +2842,13 @@
         <v>60</v>
       </c>
       <c r="R29">
-        <v>32.429881</v>
+        <v>32.946411</v>
       </c>
       <c r="S29">
-        <v>243.72595</v>
+        <v>255.46245</v>
       </c>
       <c r="T29">
-        <v>7387.6759</v>
+        <v>7740.7118</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2904,13 +2904,13 @@
         <v>60</v>
       </c>
       <c r="R30">
-        <v>32.429881</v>
+        <v>32.946411</v>
       </c>
       <c r="S30">
-        <v>196.81466</v>
+        <v>203.12589</v>
       </c>
       <c r="T30">
-        <v>6354.5677</v>
+        <v>6636.3259</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2966,13 +2966,13 @@
         <v>60</v>
       </c>
       <c r="R31">
-        <v>35.440058</v>
+        <v>35.790145</v>
       </c>
       <c r="S31">
-        <v>156.09863</v>
+        <v>166.03163</v>
       </c>
       <c r="T31">
-        <v>6488.4707</v>
+        <v>6766.7445</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -3028,13 +3028,13 @@
         <v>60</v>
       </c>
       <c r="R32">
-        <v>37.899326</v>
+        <v>38.313724</v>
       </c>
       <c r="S32">
-        <v>161.20538</v>
+        <v>170.6092</v>
       </c>
       <c r="T32">
-        <v>8825.009599999999</v>
+        <v>9242.230799999999</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -3090,13 +3090,13 @@
         <v>60</v>
       </c>
       <c r="R33">
-        <v>37.899326</v>
+        <v>38.313724</v>
       </c>
       <c r="S33">
-        <v>128.73038</v>
+        <v>133.91137</v>
       </c>
       <c r="T33">
-        <v>7585.3188</v>
+        <v>7913.5712</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -3152,13 +3152,13 @@
         <v>60</v>
       </c>
       <c r="R34">
-        <v>40.67531</v>
+        <v>40.993475</v>
       </c>
       <c r="S34">
-        <v>105.89007</v>
+        <v>113.07493</v>
       </c>
       <c r="T34">
-        <v>7803.9994</v>
+        <v>8144.2579</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -3214,13 +3214,13 @@
         <v>47</v>
       </c>
       <c r="R35">
-        <v>32.527048</v>
+        <v>32.936142</v>
       </c>
       <c r="S35">
-        <v>241.16156</v>
+        <v>254.09681</v>
       </c>
       <c r="T35">
-        <v>7416.6612</v>
+        <v>7766.7435</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -3276,13 +3276,13 @@
         <v>47</v>
       </c>
       <c r="R36">
-        <v>32.527048</v>
+        <v>32.936142</v>
       </c>
       <c r="S36">
-        <v>194.56239</v>
+        <v>201.89703</v>
       </c>
       <c r="T36">
-        <v>6374.4831</v>
+        <v>6650.5033</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -3338,13 +3338,13 @@
         <v>47</v>
       </c>
       <c r="R37">
-        <v>35.404011</v>
+        <v>35.684846</v>
       </c>
       <c r="S37">
-        <v>156.05469</v>
+        <v>166.39009</v>
       </c>
       <c r="T37">
-        <v>6487.4281</v>
+        <v>6766.674</v>
       </c>
     </row>
     <row r="38" spans="1:20">
@@ -3400,13 +3400,13 @@
         <v>47</v>
       </c>
       <c r="R38">
-        <v>37.892485</v>
+        <v>38.217612</v>
       </c>
       <c r="S38">
-        <v>161.42161</v>
+        <v>171.49497</v>
       </c>
       <c r="T38">
-        <v>8842.4516</v>
+        <v>9245.3668</v>
       </c>
     </row>
     <row r="39" spans="1:20">
@@ -3462,13 +3462,13 @@
         <v>47</v>
       </c>
       <c r="R39">
-        <v>37.892485</v>
+        <v>38.217612</v>
       </c>
       <c r="S39">
-        <v>128.87806</v>
+        <v>134.63203</v>
       </c>
       <c r="T39">
-        <v>7597.7868</v>
+        <v>7911.4539</v>
       </c>
     </row>
     <row r="40" spans="1:20">
@@ -3524,13 +3524,13 @@
         <v>47</v>
       </c>
       <c r="R40">
-        <v>40.513506</v>
+        <v>40.763848</v>
       </c>
       <c r="S40">
-        <v>107.28459</v>
+        <v>114.79932</v>
       </c>
       <c r="T40">
-        <v>7785.3375</v>
+        <v>8116.4837</v>
       </c>
     </row>
     <row r="41" spans="1:20">
@@ -3586,13 +3586,13 @@
         <v>60</v>
       </c>
       <c r="R41">
-        <v>27.719826</v>
+        <v>28.05663</v>
       </c>
       <c r="S41">
-        <v>413.59145</v>
+        <v>431.6082</v>
       </c>
       <c r="T41">
-        <v>7505.369</v>
+        <v>7795.7111</v>
       </c>
     </row>
     <row r="42" spans="1:20">
@@ -3648,13 +3648,13 @@
         <v>60</v>
       </c>
       <c r="R42">
-        <v>27.719826</v>
+        <v>28.05663</v>
       </c>
       <c r="S42">
-        <v>337.56077</v>
+        <v>349.04769</v>
       </c>
       <c r="T42">
-        <v>6469.4201</v>
+        <v>6703.3473</v>
       </c>
     </row>
     <row r="43" spans="1:20">
@@ -3710,13 +3710,13 @@
         <v>60</v>
       </c>
       <c r="R43">
-        <v>28.518508</v>
+        <v>28.715535</v>
       </c>
       <c r="S43">
-        <v>328.93872</v>
+        <v>350.3813</v>
       </c>
       <c r="T43">
-        <v>6534.2469</v>
+        <v>6801.2727</v>
       </c>
     </row>
     <row r="44" spans="1:20">
@@ -3772,13 +3772,13 @@
         <v>60</v>
       </c>
       <c r="R44">
-        <v>40.52516</v>
+        <v>41.091098</v>
       </c>
       <c r="S44">
-        <v>138.26957</v>
+        <v>144.90019</v>
       </c>
       <c r="T44">
-        <v>9480.159900000001</v>
+        <v>9850.3704</v>
       </c>
     </row>
     <row r="45" spans="1:20">
@@ -3834,13 +3834,13 @@
         <v>60</v>
       </c>
       <c r="R45">
-        <v>40.52516</v>
+        <v>41.091098</v>
       </c>
       <c r="S45">
-        <v>109.92651</v>
+        <v>113.19133</v>
       </c>
       <c r="T45">
-        <v>8196.774299999999</v>
+        <v>8491.4076</v>
       </c>
     </row>
     <row r="46" spans="1:20">
@@ -3896,13 +3896,13 @@
         <v>60</v>
       </c>
       <c r="R46">
-        <v>41.912333</v>
+        <v>42.366219</v>
       </c>
       <c r="S46">
-        <v>103.27914</v>
+        <v>109.0772</v>
       </c>
       <c r="T46">
-        <v>8342.813599999999</v>
+        <v>8664.275</v>
       </c>
     </row>
     <row r="47" spans="1:20">
@@ -3958,13 +3958,13 @@
         <v>47</v>
       </c>
       <c r="R47">
-        <v>27.857773</v>
+        <v>28.088562</v>
       </c>
       <c r="S47">
-        <v>412.17048</v>
+        <v>436.38377</v>
       </c>
       <c r="T47">
-        <v>7597.4382</v>
+        <v>7919.5603</v>
       </c>
     </row>
     <row r="48" spans="1:20">
@@ -4020,13 +4020,13 @@
         <v>47</v>
       </c>
       <c r="R48">
-        <v>27.857773</v>
+        <v>28.088562</v>
       </c>
       <c r="S48">
-        <v>335.38511</v>
+        <v>351.27225</v>
       </c>
       <c r="T48">
-        <v>6539.6054</v>
+        <v>6795.6538</v>
       </c>
     </row>
     <row r="49" spans="1:20">
@@ -4082,13 +4082,13 @@
         <v>47</v>
       </c>
       <c r="R49">
-        <v>28.684708</v>
+        <v>28.821345</v>
       </c>
       <c r="S49">
-        <v>324.84853</v>
+        <v>348.25372</v>
       </c>
       <c r="T49">
-        <v>6574.511</v>
+        <v>6853.5142</v>
       </c>
     </row>
     <row r="50" spans="1:20">
@@ -4144,13 +4144,13 @@
         <v>47</v>
       </c>
       <c r="R50">
-        <v>40.222734</v>
+        <v>40.662681</v>
       </c>
       <c r="S50">
-        <v>142.45277</v>
+        <v>150.29793</v>
       </c>
       <c r="T50">
-        <v>9528.9319</v>
+        <v>9915.6438</v>
       </c>
     </row>
     <row r="51" spans="1:20">
@@ -4206,13 +4206,13 @@
         <v>47</v>
       </c>
       <c r="R51">
-        <v>40.222734</v>
+        <v>40.662681</v>
       </c>
       <c r="S51">
-        <v>113.27429</v>
+        <v>117.46941</v>
       </c>
       <c r="T51">
-        <v>8231.297200000001</v>
+        <v>8535.2413</v>
       </c>
     </row>
     <row r="52" spans="1:20">
@@ -4268,13 +4268,13 @@
         <v>47</v>
       </c>
       <c r="R52">
-        <v>41.631879</v>
+        <v>41.985442</v>
       </c>
       <c r="S52">
-        <v>106.06288</v>
+        <v>112.57179</v>
       </c>
       <c r="T52">
-        <v>8355.255499999999</v>
+        <v>8682.7765</v>
       </c>
     </row>
     <row r="53" spans="1:20">
@@ -4330,13 +4330,13 @@
         <v>35</v>
       </c>
       <c r="R53">
-        <v>39.685345</v>
+        <v>40.116115</v>
       </c>
       <c r="S53">
-        <v>127.71205</v>
+        <v>133.96716</v>
       </c>
       <c r="T53">
-        <v>8681.569</v>
+        <v>9043.459800000001</v>
       </c>
     </row>
     <row r="54" spans="1:20">
@@ -4392,13 +4392,13 @@
         <v>47</v>
       </c>
       <c r="R54">
-        <v>28.141037</v>
+        <v>28.467255</v>
       </c>
       <c r="S54">
-        <v>583.32055</v>
+        <v>606.89234</v>
       </c>
       <c r="T54">
-        <v>10463.124</v>
+        <v>10774.226</v>
       </c>
     </row>
     <row r="55" spans="1:20">
@@ -4454,13 +4454,13 @@
         <v>47</v>
       </c>
       <c r="R55">
-        <v>42.352578</v>
+        <v>43.01192</v>
       </c>
       <c r="S55">
-        <v>166.966</v>
+        <v>173.46115</v>
       </c>
       <c r="T55">
-        <v>13419.714</v>
+        <v>13885.345</v>
       </c>
     </row>
     <row r="56" spans="1:20">
@@ -4516,13 +4516,13 @@
         <v>60</v>
       </c>
       <c r="R56">
-        <v>33.877648</v>
+        <v>34.177964</v>
       </c>
       <c r="S56">
-        <v>127.12396</v>
+        <v>133.35078</v>
       </c>
       <c r="T56">
-        <v>5083.1548</v>
+        <v>5323.6624</v>
       </c>
     </row>
     <row r="57" spans="1:20">
@@ -4578,13 +4578,13 @@
         <v>60</v>
       </c>
       <c r="R57">
-        <v>35.840503</v>
+        <v>36.000347</v>
       </c>
       <c r="S57">
-        <v>105.9152</v>
+        <v>111.9938</v>
       </c>
       <c r="T57">
-        <v>5542.3666</v>
+        <v>5800.0503</v>
       </c>
     </row>
     <row r="58" spans="1:20">
@@ -4640,13 +4640,13 @@
         <v>60</v>
       </c>
       <c r="R58">
-        <v>34.274385</v>
+        <v>34.569306</v>
       </c>
       <c r="S58">
-        <v>132.88434</v>
+        <v>139.56443</v>
       </c>
       <c r="T58">
-        <v>5467.2013</v>
+        <v>5714.4155</v>
       </c>
     </row>
     <row r="59" spans="1:20">
@@ -4702,13 +4702,13 @@
         <v>60</v>
       </c>
       <c r="R59">
-        <v>37.177909</v>
+        <v>37.34997</v>
       </c>
       <c r="S59">
-        <v>101.99983</v>
+        <v>107.85503</v>
       </c>
       <c r="T59">
-        <v>6125.4332</v>
+        <v>6402.9912</v>
       </c>
     </row>
     <row r="60" spans="1:20">
@@ -4764,13 +4764,13 @@
         <v>60</v>
       </c>
       <c r="R60">
-        <v>28.996976</v>
+        <v>29.161173</v>
       </c>
       <c r="S60">
-        <v>260.98103</v>
+        <v>277.63662</v>
       </c>
       <c r="T60">
-        <v>5773.1598</v>
+        <v>6012.4339</v>
       </c>
     </row>
     <row r="61" spans="1:20">
@@ -4826,13 +4826,13 @@
         <v>60</v>
       </c>
       <c r="R61">
-        <v>41.112633</v>
+        <v>41.524555</v>
       </c>
       <c r="S61">
-        <v>89.82943400000001</v>
+        <v>93.62754200000001</v>
       </c>
       <c r="T61">
-        <v>7415.336</v>
+        <v>7708.6861</v>
       </c>
     </row>
     <row r="62" spans="1:20">
@@ -4888,13 +4888,13 @@
         <v>47</v>
       </c>
       <c r="R62">
-        <v>28.141037</v>
+        <v>28.467255</v>
       </c>
       <c r="S62">
-        <v>477.60675</v>
+        <v>493.22888</v>
       </c>
       <c r="T62">
-        <v>9089.474200000001</v>
+        <v>9342.199699999999</v>
       </c>
     </row>
     <row r="63" spans="1:20">
@@ -4950,13 +4950,13 @@
         <v>47</v>
       </c>
       <c r="R63">
-        <v>28.659664</v>
+        <v>28.890786</v>
       </c>
       <c r="S63">
-        <v>463.72955</v>
+        <v>488.96806</v>
       </c>
       <c r="T63">
-        <v>8876.393599999999</v>
+        <v>9158.597400000001</v>
       </c>
     </row>
     <row r="64" spans="1:20">
@@ -5012,13 +5012,13 @@
         <v>47</v>
       </c>
       <c r="R64">
-        <v>28.659664</v>
+        <v>28.890786</v>
       </c>
       <c r="S64">
-        <v>378.45272</v>
+        <v>395.339</v>
       </c>
       <c r="T64">
-        <v>7694.1412</v>
+        <v>7919.8137</v>
       </c>
     </row>
     <row r="65" spans="1:20">
@@ -5074,13 +5074,13 @@
         <v>47</v>
       </c>
       <c r="R65">
-        <v>42.352578</v>
+        <v>43.01192</v>
       </c>
       <c r="S65">
-        <v>132.79325</v>
+        <v>135.62068</v>
       </c>
       <c r="T65">
-        <v>11661.158</v>
+        <v>12035.246</v>
       </c>
     </row>
     <row r="66" spans="1:20">
@@ -5136,13 +5136,13 @@
         <v>47</v>
       </c>
       <c r="R66">
-        <v>43.669594</v>
+        <v>44.206481</v>
       </c>
       <c r="S66">
-        <v>122.75609</v>
+        <v>128.49093</v>
       </c>
       <c r="T66">
-        <v>11528.323</v>
+        <v>11917.126</v>
       </c>
     </row>
     <row r="67" spans="1:20">
@@ -5198,13 +5198,13 @@
         <v>47</v>
       </c>
       <c r="R67">
-        <v>43.669594</v>
+        <v>44.206481</v>
       </c>
       <c r="S67">
-        <v>97.514101</v>
+        <v>100.31691</v>
       </c>
       <c r="T67">
-        <v>10006.409</v>
+        <v>10313.729</v>
       </c>
     </row>
     <row r="68" spans="1:20">
@@ -5260,13 +5260,13 @@
         <v>60</v>
       </c>
       <c r="R68">
-        <v>29.840585</v>
+        <v>30.246734</v>
       </c>
       <c r="S68">
-        <v>266.2857</v>
+        <v>280.62124</v>
       </c>
       <c r="T68">
-        <v>6596.6809</v>
+        <v>6980.0786</v>
       </c>
     </row>
     <row r="69" spans="1:20">
@@ -5322,13 +5322,13 @@
         <v>60</v>
       </c>
       <c r="R69">
-        <v>29.840585</v>
+        <v>30.246734</v>
       </c>
       <c r="S69">
-        <v>214.99227</v>
+        <v>223.04829</v>
       </c>
       <c r="T69">
-        <v>5602.3853</v>
+        <v>5900.3446</v>
       </c>
     </row>
     <row r="70" spans="1:20">
@@ -5384,13 +5384,13 @@
         <v>60</v>
       </c>
       <c r="R70">
-        <v>33.877648</v>
+        <v>34.177964</v>
       </c>
       <c r="S70">
-        <v>158.99654</v>
+        <v>169.60117</v>
       </c>
       <c r="T70">
-        <v>5977.2824</v>
+        <v>6286.9394</v>
       </c>
     </row>
     <row r="71" spans="1:20">
@@ -5446,13 +5446,13 @@
         <v>60</v>
       </c>
       <c r="R71">
-        <v>29.998041</v>
+        <v>30.229234</v>
       </c>
       <c r="S71">
-        <v>258.65682</v>
+        <v>275.06727</v>
       </c>
       <c r="T71">
-        <v>6926.295</v>
+        <v>7323.7756</v>
       </c>
     </row>
     <row r="72" spans="1:20">
@@ -5508,13 +5508,13 @@
         <v>60</v>
       </c>
       <c r="R72">
-        <v>29.998041</v>
+        <v>30.229234</v>
       </c>
       <c r="S72">
-        <v>208.75689</v>
+        <v>218.54633</v>
       </c>
       <c r="T72">
-        <v>5821.4515</v>
+        <v>6118.154</v>
       </c>
     </row>
     <row r="73" spans="1:20">
@@ -5570,13 +5570,13 @@
         <v>60</v>
       </c>
       <c r="R73">
-        <v>35.840503</v>
+        <v>36.000347</v>
       </c>
       <c r="S73">
-        <v>132.89752</v>
+        <v>142.97858</v>
       </c>
       <c r="T73">
-        <v>6578.9949</v>
+        <v>6921.8283</v>
       </c>
     </row>
     <row r="74" spans="1:20">
@@ -5632,13 +5632,13 @@
         <v>47</v>
       </c>
       <c r="R74">
-        <v>30.144821</v>
+        <v>30.471858</v>
       </c>
       <c r="S74">
-        <v>260.9843</v>
+        <v>275.9933</v>
       </c>
       <c r="T74">
-        <v>6649.7543</v>
+        <v>7013.5444</v>
       </c>
     </row>
     <row r="75" spans="1:20">
@@ -5694,13 +5694,13 @@
         <v>47</v>
       </c>
       <c r="R75">
-        <v>30.144821</v>
+        <v>30.471858</v>
       </c>
       <c r="S75">
-        <v>210.59613</v>
+        <v>219.31854</v>
       </c>
       <c r="T75">
-        <v>5651.362</v>
+        <v>5932.1579</v>
       </c>
     </row>
     <row r="76" spans="1:20">
@@ -5756,13 +5756,13 @@
         <v>47</v>
       </c>
       <c r="R76">
-        <v>33.971886</v>
+        <v>34.215189</v>
       </c>
       <c r="S76">
-        <v>158.03635</v>
+        <v>168.8418</v>
       </c>
       <c r="T76">
-        <v>5979.4747</v>
+        <v>6275.9031</v>
       </c>
     </row>
     <row r="77" spans="1:20">
@@ -5818,13 +5818,13 @@
         <v>47</v>
       </c>
       <c r="R77">
-        <v>30.61699</v>
+        <v>30.803997</v>
       </c>
       <c r="S77">
-        <v>247.79572</v>
+        <v>264.04243</v>
       </c>
       <c r="T77">
-        <v>7044.6688</v>
+        <v>7427.2695</v>
       </c>
     </row>
     <row r="78" spans="1:20">
@@ -5880,13 +5880,13 @@
         <v>47</v>
       </c>
       <c r="R78">
-        <v>30.61699</v>
+        <v>30.803997</v>
       </c>
       <c r="S78">
-        <v>199.73002</v>
+        <v>209.5574</v>
       </c>
       <c r="T78">
-        <v>5927.7046</v>
+        <v>6212.8928</v>
       </c>
     </row>
     <row r="79" spans="1:20">
@@ -5942,13 +5942,13 @@
         <v>47</v>
       </c>
       <c r="R79">
-        <v>36.071058</v>
+        <v>36.201729</v>
       </c>
       <c r="S79">
-        <v>131.43786</v>
+        <v>141.41978</v>
       </c>
       <c r="T79">
-        <v>6615.7858</v>
+        <v>6944.9186</v>
       </c>
     </row>
     <row r="80" spans="1:20">
@@ -6004,13 +6004,13 @@
         <v>60</v>
       </c>
       <c r="R80">
-        <v>30.16442</v>
+        <v>30.578012</v>
       </c>
       <c r="S80">
-        <v>278.10969</v>
+        <v>292.94089</v>
       </c>
       <c r="T80">
-        <v>7097.0471</v>
+        <v>7499.7453</v>
       </c>
     </row>
     <row r="81" spans="1:20">
@@ -6066,13 +6066,13 @@
         <v>60</v>
       </c>
       <c r="R81">
-        <v>30.16442</v>
+        <v>30.578012</v>
       </c>
       <c r="S81">
-        <v>225.33101</v>
+        <v>233.74655</v>
       </c>
       <c r="T81">
-        <v>6046.6769</v>
+        <v>6361.5883</v>
       </c>
     </row>
     <row r="82" spans="1:20">
@@ -6128,13 +6128,13 @@
         <v>60</v>
       </c>
       <c r="R82">
-        <v>34.274385</v>
+        <v>34.569306</v>
       </c>
       <c r="S82">
-        <v>166.08743</v>
+        <v>177.35962</v>
       </c>
       <c r="T82">
-        <v>6408.7933</v>
+        <v>6725.5482</v>
       </c>
     </row>
     <row r="83" spans="1:20">
@@ -6190,13 +6190,13 @@
         <v>60</v>
       </c>
       <c r="R83">
-        <v>31.974972</v>
+        <v>32.225569</v>
       </c>
       <c r="S83">
-        <v>235.55055</v>
+        <v>250.49808</v>
       </c>
       <c r="T83">
-        <v>7744.933</v>
+        <v>8176.5156</v>
       </c>
     </row>
     <row r="84" spans="1:20">
@@ -6252,13 +6252,13 @@
         <v>60</v>
       </c>
       <c r="R84">
-        <v>31.974972</v>
+        <v>32.225569</v>
       </c>
       <c r="S84">
-        <v>189.60469</v>
+        <v>198.41516</v>
       </c>
       <c r="T84">
-        <v>6525.8995</v>
+        <v>6850.915</v>
       </c>
     </row>
     <row r="85" spans="1:20">
@@ -6314,13 +6314,13 @@
         <v>60</v>
       </c>
       <c r="R85">
-        <v>37.177909</v>
+        <v>37.34997</v>
       </c>
       <c r="S85">
-        <v>128.11329</v>
+        <v>137.84446</v>
       </c>
       <c r="T85">
-        <v>7248.6217</v>
+        <v>7615.2358</v>
       </c>
     </row>
     <row r="86" spans="1:20">
@@ -6376,13 +6376,13 @@
         <v>47</v>
       </c>
       <c r="R86">
-        <v>30.57852</v>
+        <v>30.91135</v>
       </c>
       <c r="S86">
-        <v>269.99181</v>
+        <v>285.44196</v>
       </c>
       <c r="T86">
-        <v>7164.8658</v>
+        <v>7546.8677</v>
       </c>
     </row>
     <row r="87" spans="1:20">
@@ -6438,13 +6438,13 @@
         <v>47</v>
       </c>
       <c r="R87">
-        <v>30.57852</v>
+        <v>30.91135</v>
       </c>
       <c r="S87">
-        <v>218.43851</v>
+        <v>227.48931</v>
       </c>
       <c r="T87">
-        <v>6106.7763</v>
+        <v>6403.212</v>
       </c>
     </row>
     <row r="88" spans="1:20">
@@ -6500,13 +6500,13 @@
         <v>47</v>
       </c>
       <c r="R88">
-        <v>34.387518</v>
+        <v>34.627281</v>
       </c>
       <c r="S88">
-        <v>164.64827</v>
+        <v>176.05471</v>
       </c>
       <c r="T88">
-        <v>6412.362</v>
+        <v>6717.2576</v>
       </c>
     </row>
     <row r="89" spans="1:20">
@@ -6562,13 +6562,13 @@
         <v>47</v>
       </c>
       <c r="R89">
-        <v>32.588895</v>
+        <v>32.788712</v>
       </c>
       <c r="S89">
-        <v>225.69278</v>
+        <v>240.62029</v>
       </c>
       <c r="T89">
-        <v>7872.6625</v>
+        <v>8287.496999999999</v>
       </c>
     </row>
     <row r="90" spans="1:20">
@@ -6624,13 +6624,13 @@
         <v>47</v>
       </c>
       <c r="R90">
-        <v>32.588895</v>
+        <v>32.788712</v>
       </c>
       <c r="S90">
-        <v>181.39469</v>
+        <v>190.34094</v>
       </c>
       <c r="T90">
-        <v>6639.8228</v>
+        <v>6951.342</v>
       </c>
     </row>
     <row r="91" spans="1:20">
@@ -6686,13 +6686,13 @@
         <v>47</v>
       </c>
       <c r="R91">
-        <v>37.3492</v>
+        <v>37.490387</v>
       </c>
       <c r="S91">
-        <v>127.36114</v>
+        <v>137.04409</v>
       </c>
       <c r="T91">
-        <v>7284.9783</v>
+        <v>7636.5836</v>
       </c>
     </row>
     <row r="92" spans="1:20">
@@ -6748,13 +6748,13 @@
         <v>60</v>
       </c>
       <c r="R92">
-        <v>28.188256</v>
+        <v>28.443798</v>
       </c>
       <c r="S92">
-        <v>411.56216</v>
+        <v>439.6942</v>
       </c>
       <c r="T92">
-        <v>7807.7417</v>
+        <v>8168.7699</v>
       </c>
     </row>
     <row r="93" spans="1:20">
@@ -6810,13 +6810,13 @@
         <v>60</v>
       </c>
       <c r="R93">
-        <v>28.188256</v>
+        <v>28.443798</v>
       </c>
       <c r="S93">
-        <v>333.71295</v>
+        <v>352.33604</v>
       </c>
       <c r="T93">
-        <v>6715.3908</v>
+        <v>7007.2896</v>
       </c>
     </row>
     <row r="94" spans="1:20">
@@ -6872,13 +6872,13 @@
         <v>60</v>
       </c>
       <c r="R94">
-        <v>28.996976</v>
+        <v>29.161173</v>
       </c>
       <c r="S94">
-        <v>323.10051</v>
+        <v>348.22271</v>
       </c>
       <c r="T94">
-        <v>6726.8317</v>
+        <v>7027.0085</v>
       </c>
     </row>
     <row r="95" spans="1:20">
@@ -6934,13 +6934,13 @@
         <v>60</v>
       </c>
       <c r="R95">
-        <v>39.144748</v>
+        <v>39.605775</v>
       </c>
       <c r="S95">
-        <v>158.75466</v>
+        <v>167.9376</v>
       </c>
       <c r="T95">
-        <v>9801.901099999999</v>
+        <v>10260.723</v>
       </c>
     </row>
     <row r="96" spans="1:20">
@@ -6996,13 +6996,13 @@
         <v>60</v>
       </c>
       <c r="R96">
-        <v>39.144748</v>
+        <v>39.605775</v>
       </c>
       <c r="S96">
-        <v>126.31966</v>
+        <v>131.29419</v>
       </c>
       <c r="T96">
-        <v>8432.9084</v>
+        <v>8797.8495</v>
       </c>
     </row>
     <row r="97" spans="1:20">
@@ -7058,13 +7058,13 @@
         <v>60</v>
       </c>
       <c r="R97">
-        <v>41.112633</v>
+        <v>41.524555</v>
       </c>
       <c r="S97">
-        <v>113.11636</v>
+        <v>120.01537</v>
       </c>
       <c r="T97">
-        <v>8614.146000000001</v>
+        <v>8985.651900000001</v>
       </c>
     </row>
     <row r="98" spans="1:20">
@@ -7120,13 +7120,13 @@
         <v>47</v>
       </c>
       <c r="R98">
-        <v>28.379745</v>
+        <v>28.56355</v>
       </c>
       <c r="S98">
-        <v>404.47252</v>
+        <v>434.35843</v>
       </c>
       <c r="T98">
-        <v>7858.1465</v>
+        <v>8223.835999999999</v>
       </c>
     </row>
     <row r="99" spans="1:20">
@@ -7182,13 +7182,13 @@
         <v>47</v>
       </c>
       <c r="R99">
-        <v>28.379745</v>
+        <v>28.56355</v>
       </c>
       <c r="S99">
-        <v>327.39157</v>
+        <v>347.15081</v>
       </c>
       <c r="T99">
-        <v>6751.0198</v>
+        <v>7042.7108</v>
       </c>
     </row>
     <row r="100" spans="1:20">
@@ -7244,13 +7244,13 @@
         <v>47</v>
       </c>
       <c r="R100">
-        <v>29.162851</v>
+        <v>29.280532</v>
       </c>
       <c r="S100">
-        <v>317.23772</v>
+        <v>342.65348</v>
       </c>
       <c r="T100">
-        <v>6741.2426</v>
+        <v>7042.7373</v>
       </c>
     </row>
     <row r="101" spans="1:20">
@@ -7306,13 +7306,13 @@
         <v>47</v>
       </c>
       <c r="R101">
-        <v>39.066989</v>
+        <v>39.431821</v>
       </c>
       <c r="S101">
-        <v>160.58754</v>
+        <v>170.549</v>
       </c>
       <c r="T101">
-        <v>9834.0573</v>
+        <v>10277.29</v>
       </c>
     </row>
     <row r="102" spans="1:20">
@@ -7368,13 +7368,13 @@
         <v>47</v>
       </c>
       <c r="R102">
-        <v>39.066989</v>
+        <v>39.431821</v>
       </c>
       <c r="S102">
-        <v>127.7966</v>
+        <v>133.41416</v>
       </c>
       <c r="T102">
-        <v>8458.6662</v>
+        <v>8807.138199999999</v>
       </c>
     </row>
     <row r="103" spans="1:20">
@@ -7430,13 +7430,13 @@
         <v>47</v>
       </c>
       <c r="R103">
-        <v>40.928781</v>
+        <v>41.251196</v>
       </c>
       <c r="S103">
-        <v>115.06413</v>
+        <v>122.53715</v>
       </c>
       <c r="T103">
-        <v>8603.4432</v>
+        <v>8965.501200000001</v>
       </c>
     </row>
     <row r="104" spans="1:20">
@@ -7492,13 +7492,13 @@
         <v>35</v>
       </c>
       <c r="R104">
-        <v>40.117372</v>
+        <v>40.589177</v>
       </c>
       <c r="S104">
-        <v>124.37389</v>
+        <v>130.05879</v>
       </c>
       <c r="T104">
-        <v>8714.2716</v>
+        <v>9061.084000000001</v>
       </c>
     </row>
     <row r="105" spans="1:20">
@@ -7554,13 +7554,13 @@
         <v>47</v>
       </c>
       <c r="R105">
-        <v>28.152788</v>
+        <v>28.488689</v>
       </c>
       <c r="S105">
-        <v>581.41704</v>
+        <v>603.25575</v>
       </c>
       <c r="T105">
-        <v>10444.941</v>
+        <v>10744.741</v>
       </c>
     </row>
     <row r="106" spans="1:20">
@@ -7616,13 +7616,13 @@
         <v>47</v>
       </c>
       <c r="R106">
-        <v>42.448119</v>
+        <v>43.113157</v>
       </c>
       <c r="S106">
-        <v>165.84826</v>
+        <v>172.1899</v>
       </c>
       <c r="T106">
-        <v>13415.722</v>
+        <v>13870.642</v>
       </c>
     </row>
     <row r="107" spans="1:20">
@@ -7678,13 +7678,13 @@
         <v>60</v>
       </c>
       <c r="R107">
-        <v>34.661397</v>
+        <v>35.00137</v>
       </c>
       <c r="S107">
-        <v>121.38167</v>
+        <v>127.03568</v>
       </c>
       <c r="T107">
-        <v>5165.2554</v>
+        <v>5398.646</v>
       </c>
     </row>
     <row r="108" spans="1:20">
@@ -7740,13 +7740,13 @@
         <v>60</v>
       </c>
       <c r="R108">
-        <v>38.196778</v>
+        <v>38.414748</v>
       </c>
       <c r="S108">
-        <v>92.312439</v>
+        <v>97.363732</v>
       </c>
       <c r="T108">
-        <v>5942.6462</v>
+        <v>6202.3391</v>
       </c>
     </row>
     <row r="109" spans="1:20">
@@ -7802,13 +7802,13 @@
         <v>60</v>
       </c>
       <c r="R109">
-        <v>34.95603</v>
+        <v>35.285565</v>
       </c>
       <c r="S109">
-        <v>128.34167</v>
+        <v>134.51248</v>
       </c>
       <c r="T109">
-        <v>5549.6799</v>
+        <v>5785.705</v>
       </c>
     </row>
     <row r="110" spans="1:20">
@@ -7864,13 +7864,13 @@
         <v>60</v>
       </c>
       <c r="R110">
-        <v>39.209107</v>
+        <v>39.446978</v>
       </c>
       <c r="S110">
-        <v>91.49461100000001</v>
+        <v>96.42678100000001</v>
       </c>
       <c r="T110">
-        <v>6518.9765</v>
+        <v>6796.2781</v>
       </c>
     </row>
     <row r="111" spans="1:20">
@@ -7926,13 +7926,13 @@
         <v>60</v>
       </c>
       <c r="R111">
-        <v>28.907049</v>
+        <v>29.086197</v>
       </c>
       <c r="S111">
-        <v>262.74881</v>
+        <v>278.52449</v>
       </c>
       <c r="T111">
-        <v>5741.4825</v>
+        <v>5970.8317</v>
       </c>
     </row>
     <row r="112" spans="1:20">
@@ -7988,13 +7988,13 @@
         <v>60</v>
       </c>
       <c r="R112">
-        <v>41.596481</v>
+        <v>42.045573</v>
       </c>
       <c r="S112">
-        <v>86.493235</v>
+        <v>89.875282</v>
       </c>
       <c r="T112">
-        <v>7404.3326</v>
+        <v>7682.1096</v>
       </c>
     </row>
     <row r="113" spans="1:20">
@@ -8050,13 +8050,13 @@
         <v>47</v>
       </c>
       <c r="R113">
-        <v>28.152788</v>
+        <v>28.488689</v>
       </c>
       <c r="S113">
-        <v>476.32191</v>
+        <v>490.66825</v>
       </c>
       <c r="T113">
-        <v>9075.773499999999</v>
+        <v>9319.125400000001</v>
       </c>
     </row>
     <row r="114" spans="1:20">
@@ -8112,13 +8112,13 @@
         <v>47</v>
       </c>
       <c r="R114">
-        <v>28.665182</v>
+        <v>28.90113</v>
       </c>
       <c r="S114">
-        <v>462.77605</v>
+        <v>487.27957</v>
       </c>
       <c r="T114">
-        <v>8864.618200000001</v>
+        <v>9141.909299999999</v>
       </c>
     </row>
     <row r="115" spans="1:20">
@@ -8174,13 +8174,13 @@
         <v>47</v>
       </c>
       <c r="R115">
-        <v>28.665182</v>
+        <v>28.90113</v>
       </c>
       <c r="S115">
-        <v>377.82621</v>
+        <v>394.17764</v>
       </c>
       <c r="T115">
-        <v>7685.2234</v>
+        <v>7906.9019</v>
       </c>
     </row>
     <row r="116" spans="1:20">
@@ -8236,13 +8236,13 @@
         <v>47</v>
       </c>
       <c r="R116">
-        <v>42.448119</v>
+        <v>43.113157</v>
       </c>
       <c r="S116">
-        <v>131.90433</v>
+        <v>134.62421</v>
       </c>
       <c r="T116">
-        <v>11661.899</v>
+        <v>12027.041</v>
       </c>
     </row>
     <row r="117" spans="1:20">
@@ -8298,13 +8298,13 @@
         <v>47</v>
       </c>
       <c r="R117">
-        <v>43.7395</v>
+        <v>44.277118</v>
       </c>
       <c r="S117">
-        <v>122.12386</v>
+        <v>127.80143</v>
       </c>
       <c r="T117">
-        <v>11523.4</v>
+        <v>11906.918</v>
       </c>
     </row>
     <row r="118" spans="1:20">
@@ -8360,13 +8360,13 @@
         <v>47</v>
       </c>
       <c r="R118">
-        <v>43.7395</v>
+        <v>44.277118</v>
       </c>
       <c r="S118">
-        <v>97.011804</v>
+        <v>99.77690200000001</v>
       </c>
       <c r="T118">
-        <v>10004.762</v>
+        <v>10307.565</v>
       </c>
     </row>
     <row r="119" spans="1:20">
@@ -8422,13 +8422,13 @@
         <v>60</v>
       </c>
       <c r="R119">
-        <v>31.289701</v>
+        <v>31.757229</v>
       </c>
       <c r="S119">
-        <v>242.19471</v>
+        <v>254.52135</v>
       </c>
       <c r="T119">
-        <v>6778.4063</v>
+        <v>7150.9339</v>
       </c>
     </row>
     <row r="120" spans="1:20">
@@ -8484,13 +8484,13 @@
         <v>60</v>
       </c>
       <c r="R120">
-        <v>31.289701</v>
+        <v>31.757229</v>
       </c>
       <c r="S120">
-        <v>195.15218</v>
+        <v>201.86245</v>
       </c>
       <c r="T120">
-        <v>5787.3154</v>
+        <v>6080.7581</v>
       </c>
     </row>
     <row r="121" spans="1:20">
@@ -8546,13 +8546,13 @@
         <v>60</v>
       </c>
       <c r="R121">
-        <v>34.661397</v>
+        <v>35.00137</v>
       </c>
       <c r="S121">
-        <v>151.88448</v>
+        <v>161.64448</v>
       </c>
       <c r="T121">
-        <v>6048.828</v>
+        <v>6347.1096</v>
       </c>
     </row>
     <row r="122" spans="1:20">
@@ -8608,13 +8608,13 @@
         <v>60</v>
       </c>
       <c r="R122">
-        <v>33.920723</v>
+        <v>34.209275</v>
       </c>
       <c r="S122">
-        <v>196.61784</v>
+        <v>209.04097</v>
       </c>
       <c r="T122">
-        <v>7600.1548</v>
+        <v>8005.6844</v>
       </c>
     </row>
     <row r="123" spans="1:20">
@@ -8670,13 +8670,13 @@
         <v>60</v>
       </c>
       <c r="R123">
-        <v>33.920723</v>
+        <v>34.209275</v>
       </c>
       <c r="S123">
-        <v>157.68785</v>
+        <v>164.89742</v>
       </c>
       <c r="T123">
-        <v>6453.5416</v>
+        <v>6763.7901</v>
       </c>
     </row>
     <row r="124" spans="1:20">
@@ -8732,13 +8732,13 @@
         <v>60</v>
       </c>
       <c r="R124">
-        <v>38.196778</v>
+        <v>38.414748</v>
       </c>
       <c r="S124">
-        <v>116.0364</v>
+        <v>124.55452</v>
       </c>
       <c r="T124">
-        <v>6979.7635</v>
+        <v>7318.7827</v>
       </c>
     </row>
     <row r="125" spans="1:20">
@@ -8794,13 +8794,13 @@
         <v>47</v>
       </c>
       <c r="R125">
-        <v>31.419867</v>
+        <v>31.792192</v>
       </c>
       <c r="S125">
-        <v>240.21324</v>
+        <v>253.5506</v>
       </c>
       <c r="T125">
-        <v>6808.1394</v>
+        <v>7163.9337</v>
       </c>
     </row>
     <row r="126" spans="1:20">
@@ -8856,13 +8856,13 @@
         <v>47</v>
       </c>
       <c r="R126">
-        <v>31.419867</v>
+        <v>31.792192</v>
       </c>
       <c r="S126">
-        <v>193.50383</v>
+        <v>201.09662</v>
       </c>
       <c r="T126">
-        <v>5813.56</v>
+        <v>6091.0784</v>
       </c>
     </row>
     <row r="127" spans="1:20">
@@ -8918,13 +8918,13 @@
         <v>47</v>
       </c>
       <c r="R127">
-        <v>34.659378</v>
+        <v>34.931094</v>
       </c>
       <c r="S127">
-        <v>151.86446</v>
+        <v>161.98612</v>
       </c>
       <c r="T127">
-        <v>6042.5505</v>
+        <v>6330.6732</v>
       </c>
     </row>
     <row r="128" spans="1:20">
@@ -8980,13 +8980,13 @@
         <v>47</v>
       </c>
       <c r="R128">
-        <v>34.237449</v>
+        <v>34.468584</v>
       </c>
       <c r="S128">
-        <v>192.96025</v>
+        <v>205.63781</v>
       </c>
       <c r="T128">
-        <v>7664.5996</v>
+        <v>8051.9974</v>
       </c>
     </row>
     <row r="129" spans="1:20">
@@ -9042,13 +9042,13 @@
         <v>47</v>
       </c>
       <c r="R129">
-        <v>34.237449</v>
+        <v>34.468584</v>
       </c>
       <c r="S129">
-        <v>154.6663</v>
+        <v>162.16885</v>
       </c>
       <c r="T129">
-        <v>6514.6529</v>
+        <v>6809.4865</v>
       </c>
     </row>
     <row r="130" spans="1:20">
@@ -9104,13 +9104,13 @@
         <v>47</v>
       </c>
       <c r="R130">
-        <v>38.253722</v>
+        <v>38.430888</v>
       </c>
       <c r="S130">
-        <v>116.07921</v>
+        <v>124.67026</v>
       </c>
       <c r="T130">
-        <v>6981.8765</v>
+        <v>7306.5175</v>
       </c>
     </row>
     <row r="131" spans="1:20">
@@ -9166,13 +9166,13 @@
         <v>60</v>
       </c>
       <c r="R131">
-        <v>31.418323</v>
+        <v>31.885978</v>
       </c>
       <c r="S131">
-        <v>258.95478</v>
+        <v>272.15542</v>
       </c>
       <c r="T131">
-        <v>7297.5782</v>
+        <v>7684.5902</v>
       </c>
     </row>
     <row r="132" spans="1:20">
@@ -9228,13 +9228,13 @@
         <v>60</v>
       </c>
       <c r="R132">
-        <v>31.418323</v>
+        <v>31.885978</v>
       </c>
       <c r="S132">
-        <v>209.42546</v>
+        <v>216.72978</v>
       </c>
       <c r="T132">
-        <v>6249.3793</v>
+        <v>6555.6579</v>
       </c>
     </row>
     <row r="133" spans="1:20">
@@ -9290,13 +9290,13 @@
         <v>60</v>
       </c>
       <c r="R133">
-        <v>34.95603</v>
+        <v>35.285565</v>
       </c>
       <c r="S133">
-        <v>160.44933</v>
+        <v>170.9673</v>
       </c>
       <c r="T133">
-        <v>6479.3156</v>
+        <v>6779.8629</v>
       </c>
     </row>
     <row r="134" spans="1:20">
@@ -9352,13 +9352,13 @@
         <v>60</v>
       </c>
       <c r="R134">
-        <v>35.248269</v>
+        <v>35.555205</v>
       </c>
       <c r="S134">
-        <v>190.69687</v>
+        <v>202.67964</v>
       </c>
       <c r="T134">
-        <v>8423.626099999999</v>
+        <v>8859.5407</v>
       </c>
     </row>
     <row r="135" spans="1:20">
@@ -9414,13 +9414,13 @@
         <v>60</v>
       </c>
       <c r="R135">
-        <v>35.248269</v>
+        <v>35.555205</v>
       </c>
       <c r="S135">
-        <v>152.79155</v>
+        <v>159.68858</v>
       </c>
       <c r="T135">
-        <v>7170.5318</v>
+        <v>7506.4835</v>
       </c>
     </row>
     <row r="136" spans="1:20">
@@ -9476,13 +9476,13 @@
         <v>60</v>
       </c>
       <c r="R136">
-        <v>39.209107</v>
+        <v>39.446978</v>
       </c>
       <c r="S136">
-        <v>115.05343</v>
+        <v>123.40783</v>
       </c>
       <c r="T136">
-        <v>7638.0894</v>
+        <v>7997.9007</v>
       </c>
     </row>
     <row r="137" spans="1:20">
@@ -9538,13 +9538,13 @@
         <v>47</v>
       </c>
       <c r="R137">
-        <v>31.674297</v>
+        <v>32.048087</v>
       </c>
       <c r="S137">
-        <v>253.76568</v>
+        <v>267.84374</v>
       </c>
       <c r="T137">
-        <v>7338.3755</v>
+        <v>7709.422</v>
       </c>
     </row>
     <row r="138" spans="1:20">
@@ -9600,13 +9600,13 @@
         <v>47</v>
       </c>
       <c r="R138">
-        <v>31.674297</v>
+        <v>32.048087</v>
       </c>
       <c r="S138">
-        <v>204.99306</v>
+        <v>213.10236</v>
       </c>
       <c r="T138">
-        <v>6283.208</v>
+        <v>6573.9625</v>
       </c>
     </row>
     <row r="139" spans="1:20">
@@ -9662,13 +9662,13 @@
         <v>47</v>
       </c>
       <c r="R139">
-        <v>34.983061</v>
+        <v>35.24845</v>
       </c>
       <c r="S139">
-        <v>159.79603</v>
+        <v>170.59681</v>
       </c>
       <c r="T139">
-        <v>6475.8282</v>
+        <v>6769.48</v>
       </c>
     </row>
     <row r="140" spans="1:20">
@@ -9724,13 +9724,13 @@
         <v>47</v>
       </c>
       <c r="R140">
-        <v>35.581156</v>
+        <v>35.826042</v>
       </c>
       <c r="S140">
-        <v>186.62903</v>
+        <v>198.8876</v>
       </c>
       <c r="T140">
-        <v>8492.7781</v>
+        <v>8909.632299999999</v>
       </c>
     </row>
     <row r="141" spans="1:20">
@@ -9786,13 +9786,13 @@
         <v>47</v>
       </c>
       <c r="R141">
-        <v>35.581156</v>
+        <v>35.826042</v>
       </c>
       <c r="S141">
-        <v>149.41396</v>
+        <v>156.63008</v>
       </c>
       <c r="T141">
-        <v>7234.21</v>
+        <v>7553.5316</v>
       </c>
     </row>
     <row r="142" spans="1:20">
@@ -9848,13 +9848,13 @@
         <v>47</v>
       </c>
       <c r="R142">
-        <v>39.225297</v>
+        <v>39.418647</v>
       </c>
       <c r="S142">
-        <v>115.39207</v>
+        <v>123.85936</v>
       </c>
       <c r="T142">
-        <v>7638.9152</v>
+        <v>7984.2039</v>
       </c>
     </row>
     <row r="143" spans="1:20">
@@ -9910,13 +9910,13 @@
         <v>60</v>
       </c>
       <c r="R143">
-        <v>28.129293</v>
+        <v>28.423042</v>
       </c>
       <c r="S143">
-        <v>412.19964</v>
+        <v>436.57439</v>
       </c>
       <c r="T143">
-        <v>7741.4798</v>
+        <v>8075.0956</v>
       </c>
     </row>
     <row r="144" spans="1:20">
@@ -9972,13 +9972,13 @@
         <v>60</v>
       </c>
       <c r="R144">
-        <v>28.129293</v>
+        <v>28.423042</v>
       </c>
       <c r="S144">
-        <v>335.02498</v>
+        <v>351.05944</v>
       </c>
       <c r="T144">
-        <v>6668.8449</v>
+        <v>6938.7369</v>
       </c>
     </row>
     <row r="145" spans="1:20">
@@ -10034,13 +10034,13 @@
         <v>60</v>
       </c>
       <c r="R145">
-        <v>28.907049</v>
+        <v>29.086197</v>
       </c>
       <c r="S145">
-        <v>324.80977</v>
+        <v>348.61645</v>
       </c>
       <c r="T145">
-        <v>6683.8176</v>
+        <v>6971.2774</v>
       </c>
     </row>
     <row r="146" spans="1:20">
@@ -10096,13 +10096,13 @@
         <v>60</v>
       </c>
       <c r="R146">
-        <v>40.004731</v>
+        <v>40.550773</v>
       </c>
       <c r="S146">
-        <v>148.9493</v>
+        <v>156.57055</v>
       </c>
       <c r="T146">
-        <v>9792.9887</v>
+        <v>10216.934</v>
       </c>
     </row>
     <row r="147" spans="1:20">
@@ -10158,13 +10158,13 @@
         <v>60</v>
       </c>
       <c r="R147">
-        <v>40.004731</v>
+        <v>40.550773</v>
       </c>
       <c r="S147">
-        <v>118.46067</v>
+        <v>122.34392</v>
       </c>
       <c r="T147">
-        <v>8454.8015</v>
+        <v>8794.0077</v>
       </c>
     </row>
     <row r="148" spans="1:20">
@@ -10220,13 +10220,13 @@
         <v>60</v>
       </c>
       <c r="R148">
-        <v>41.596481</v>
+        <v>42.045573</v>
       </c>
       <c r="S148">
-        <v>108.93352</v>
+        <v>115.2259</v>
       </c>
       <c r="T148">
-        <v>8583.1459</v>
+        <v>8934.249900000001</v>
       </c>
     </row>
     <row r="149" spans="1:20">
@@ -10282,13 +10282,13 @@
         <v>47</v>
       </c>
       <c r="R149">
-        <v>28.291747</v>
+        <v>28.496155</v>
       </c>
       <c r="S149">
-        <v>406.94318</v>
+        <v>434.86331</v>
       </c>
       <c r="T149">
-        <v>7804.0942</v>
+        <v>8153.1293</v>
       </c>
     </row>
     <row r="150" spans="1:20">
@@ -10344,13 +10344,13 @@
         <v>47</v>
       </c>
       <c r="R150">
-        <v>28.291747</v>
+        <v>28.496155</v>
       </c>
       <c r="S150">
-        <v>330.00084</v>
+        <v>348.45105</v>
       </c>
       <c r="T150">
-        <v>6713.4318</v>
+        <v>6992.136</v>
       </c>
     </row>
     <row r="151" spans="1:20">
@@ -10406,13 +10406,13 @@
         <v>47</v>
       </c>
       <c r="R151">
-        <v>29.066389</v>
+        <v>29.1924</v>
       </c>
       <c r="S151">
-        <v>319.53682</v>
+        <v>344.24572</v>
       </c>
       <c r="T151">
-        <v>6705.6181</v>
+        <v>6998.6725</v>
       </c>
     </row>
     <row r="152" spans="1:20">
@@ -10468,13 +10468,13 @@
         <v>47</v>
       </c>
       <c r="R152">
-        <v>39.776055</v>
+        <v>40.197823</v>
       </c>
       <c r="S152">
-        <v>152.27261</v>
+        <v>161.05115</v>
       </c>
       <c r="T152">
-        <v>9822.3089</v>
+        <v>10243.526</v>
       </c>
     </row>
     <row r="153" spans="1:20">
@@ -10530,13 +10530,13 @@
         <v>47</v>
       </c>
       <c r="R153">
-        <v>39.776055</v>
+        <v>40.197823</v>
       </c>
       <c r="S153">
-        <v>121.12987</v>
+        <v>125.92129</v>
       </c>
       <c r="T153">
-        <v>8473.3405</v>
+        <v>8806.123799999999</v>
       </c>
     </row>
     <row r="154" spans="1:20">
@@ -10592,13 +10592,13 @@
         <v>47</v>
       </c>
       <c r="R154">
-        <v>41.344888</v>
+        <v>41.691848</v>
       </c>
       <c r="S154">
-        <v>111.38265</v>
+        <v>118.37697</v>
       </c>
       <c r="T154">
-        <v>8577.373100000001</v>
+        <v>8925.9943</v>
       </c>
     </row>
     <row r="155" spans="1:20" s="1" customFormat="1">
@@ -10668,13 +10668,13 @@
         <v>221</v>
       </c>
       <c r="R156" s="1">
-        <v>27.719826</v>
+        <v>28.05663</v>
       </c>
       <c r="S156" s="1">
-        <v>81.22638499999999</v>
+        <v>85.064234</v>
       </c>
       <c r="T156" s="1">
-        <v>5083.1548</v>
+        <v>5323.6624</v>
       </c>
     </row>
     <row r="157" spans="1:20" s="1" customFormat="1">
@@ -10682,13 +10682,13 @@
         <v>222</v>
       </c>
       <c r="R157" s="1">
-        <v>44.022074</v>
+        <v>44.553036</v>
       </c>
       <c r="S157" s="1">
-        <v>583.32055</v>
+        <v>606.89234</v>
       </c>
       <c r="T157" s="1">
-        <v>13419.714</v>
+        <v>13885.345</v>
       </c>
     </row>
     <row r="158" spans="1:20" s="1" customFormat="1">
@@ -10734,13 +10734,13 @@
         <v>227</v>
       </c>
       <c r="R162" s="1">
-        <v>34.81591976470587</v>
+        <v>35.15570974509804</v>
       </c>
       <c r="S162" s="1">
-        <v>206.3581159346407</v>
+        <v>217.0512434313725</v>
       </c>
       <c r="T162" s="1">
-        <v>7586.850491503265</v>
+        <v>7906.154402614377</v>
       </c>
     </row>
     <row r="163" spans="17:20" s="1" customFormat="1">
@@ -10748,13 +10748,13 @@
         <v>228</v>
       </c>
       <c r="R163" s="1">
-        <v>4.958269404275304</v>
+        <v>5.027567701730915</v>
       </c>
       <c r="S163" s="1">
-        <v>112.8792474730344</v>
+        <v>118.0337281295837</v>
       </c>
       <c r="T163" s="1">
-        <v>1685.395590540789</v>
+        <v>1716.260692215855</v>
       </c>
     </row>
     <row r="164" spans="17:20" s="1" customFormat="1">
@@ -10762,13 +10762,13 @@
         <v>229</v>
       </c>
       <c r="R164" s="1">
-        <v>14.24138565858506</v>
+        <v>14.30085678310601</v>
       </c>
       <c r="S164" s="1">
-        <v>54.70065810679645</v>
+        <v>54.38058140722133</v>
       </c>
       <c r="T164" s="1">
-        <v>22.21469359951554</v>
+        <v>21.70790759725523</v>
       </c>
     </row>
     <row r="165" spans="17:20" s="1" customFormat="1"/>
